--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4024" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -332,10 +344,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -379,28 +391,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -425,28 +437,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -708,10 +720,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="J20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -755,28 +767,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="A22" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s" s="2">
+      <c r="C22" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -801,28 +813,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="2">
+      <c r="D24" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="2">
+      <c r="I24" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -910,10 +922,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="J27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -957,28 +969,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="2">
+      <c r="C29" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1003,28 +1015,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1083,10 +1095,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="2" t="s">
+      <c r="J33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1130,28 +1142,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="2">
+      <c r="A35" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="2">
+      <c r="C35" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1176,28 +1188,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="C37" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="2">
+      <c r="D37" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="2">
+      <c r="I37" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1256,10 +1268,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="2" t="s">
+      <c r="J39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1303,28 +1315,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="2">
+      <c r="A41" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="2">
+      <c r="C41" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1349,28 +1361,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="2">
+      <c r="C43" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="2">
+      <c r="D43" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="2">
+      <c r="I43" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1429,10 +1441,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="J45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1476,28 +1488,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
+      <c r="A47" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="2">
+      <c r="C47" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1522,28 +1534,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="2">
+      <c r="I49" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1631,10 +1643,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="2" t="s">
+      <c r="J52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1678,28 +1690,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="2">
+      <c r="C54" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1724,28 +1736,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1804,10 +1816,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="2" t="s">
+      <c r="J58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1851,28 +1863,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="2">
+      <c r="C60" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1897,28 +1909,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1977,10 +1989,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2024,28 +2036,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2070,28 +2082,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2150,10 +2162,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="2" t="s">
+      <c r="J70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2197,28 +2209,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="2">
+      <c r="C72" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2243,28 +2255,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2323,10 +2335,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="2" t="s">
+      <c r="J76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2370,28 +2382,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="2">
+      <c r="A78" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s" s="2">
+      <c r="C78" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2416,28 +2428,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="2">
+      <c r="C80" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="2">
+      <c r="D80" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="2">
+      <c r="I80" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2496,10 +2508,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2543,28 +2555,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="2">
+      <c r="C84" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2589,28 +2601,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2669,10 +2681,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="2" t="s">
+      <c r="J88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2716,28 +2728,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="2">
+      <c r="C90" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2762,28 +2774,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="2">
+      <c r="I92" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2842,10 +2854,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="2" t="s">
+      <c r="J94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2889,28 +2901,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
+      <c r="A96" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="2">
+      <c r="C96" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2935,28 +2947,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="2">
+      <c r="I98" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3276,10 +3288,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="2" t="s">
+      <c r="J109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3323,28 +3335,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="2">
+      <c r="C111" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3369,28 +3381,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="2">
+      <c r="I113" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3449,10 +3461,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="2" t="s">
+      <c r="J115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3496,28 +3508,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="2">
+      <c r="C117" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3542,28 +3554,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3622,10 +3634,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="2" t="s">
+      <c r="J121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3669,28 +3681,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="2">
+      <c r="C123" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3715,28 +3727,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3795,10 +3807,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="2" t="s">
+      <c r="J127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3842,28 +3854,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="2">
+      <c r="C129" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3888,28 +3900,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3968,10 +3980,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4015,28 +4027,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4061,28 +4073,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4170,10 +4182,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4217,28 +4229,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4263,28 +4275,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4343,10 +4355,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="J146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4390,28 +4402,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4436,28 +4448,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4545,10 +4557,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="2" t="s">
+      <c r="J153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4592,28 +4604,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="2">
+      <c r="A155" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="2">
+      <c r="C155" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4638,28 +4650,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="C157" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="2">
+      <c r="D157" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="2">
+      <c r="I157" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4747,10 +4759,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="2" t="s">
+      <c r="J160" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4794,28 +4806,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="2">
+      <c r="A162" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="2">
+      <c r="C162" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4840,28 +4852,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="2">
+      <c r="C164" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="2">
+      <c r="D164" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="2">
+      <c r="I164" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5210,10 +5222,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5257,28 +5269,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5303,28 +5315,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5383,10 +5395,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="2" t="s">
+      <c r="J182" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5430,28 +5442,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="2">
+      <c r="A184" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="2">
+      <c r="C184" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5476,28 +5488,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="2">
+      <c r="I186" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5556,10 +5568,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="2" t="s">
+      <c r="J188" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5603,28 +5615,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="2">
+      <c r="A190" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="2">
+      <c r="C190" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5649,28 +5661,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="C192" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="2">
+      <c r="D192" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="2">
+      <c r="I192" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5729,10 +5741,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="2" t="s">
+      <c r="J194" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5776,28 +5788,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="2">
+      <c r="A196" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="2">
+      <c r="C196" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5822,28 +5834,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="2">
+      <c r="C198" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="2">
+      <c r="D198" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="2">
+      <c r="I198" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5931,10 +5943,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="2" t="s">
+      <c r="J201" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5978,28 +5990,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="2">
+      <c r="A203" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="2">
+      <c r="C203" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6024,28 +6036,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="2">
+      <c r="C205" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="2">
+      <c r="D205" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="2">
+      <c r="I205" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6104,10 +6116,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="2" t="s">
+      <c r="J207" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6151,28 +6163,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="2">
+      <c r="A209" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="2">
+      <c r="C209" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6197,28 +6209,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="C211" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="2">
+      <c r="D211" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="2">
+      <c r="I211" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6277,10 +6289,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="2" t="s">
+      <c r="J213" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6324,28 +6336,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="2">
+      <c r="A215" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="2">
+      <c r="C215" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6370,28 +6382,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="2">
+      <c r="C217" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="2">
+      <c r="D217" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="2">
+      <c r="I217" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6450,10 +6462,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="2" t="s">
+      <c r="J219" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6497,28 +6509,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="2">
+      <c r="A221" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="2">
+      <c r="C221" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6543,28 +6555,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="2">
+      <c r="C223" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="2">
+      <c r="D223" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="2">
+      <c r="I223" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6623,10 +6635,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="2" t="s">
+      <c r="J225" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6670,28 +6682,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="2">
+      <c r="A227" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="2">
+      <c r="C227" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6716,28 +6728,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="2">
+      <c r="C229" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="2">
+      <c r="D229" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="2">
+      <c r="I229" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6796,10 +6808,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="2" t="s">
+      <c r="J231" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6843,28 +6855,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="2">
+      <c r="A233" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="2">
+      <c r="C233" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6889,28 +6901,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="2">
+      <c r="C235" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="2">
+      <c r="D235" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="2">
+      <c r="I235" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6969,10 +6981,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="2" t="s">
+      <c r="J237" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7016,28 +7028,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="2">
+      <c r="A239" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="2">
+      <c r="C239" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7062,28 +7074,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="2">
+      <c r="C241" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="2">
+      <c r="D241" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="2">
+      <c r="I241" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7461,10 +7473,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="2" t="s">
+      <c r="J254" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7508,28 +7520,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="2">
+      <c r="A256" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="2">
+      <c r="C256" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7554,28 +7566,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="2">
+      <c r="C258" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="2">
+      <c r="D258" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="2">
+      <c r="I258" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7634,10 +7646,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="2" t="s">
+      <c r="J260" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7681,28 +7693,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="2">
+      <c r="A262" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="2">
+      <c r="C262" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7727,28 +7739,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="2">
+      <c r="C264" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="2">
+      <c r="D264" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="2">
+      <c r="I264" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7807,10 +7819,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="2" t="s">
+      <c r="J266" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7854,28 +7866,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="2">
+      <c r="A268" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="2">
+      <c r="C268" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7900,28 +7912,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="2">
+      <c r="C270" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="2">
+      <c r="D270" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="2">
+      <c r="I270" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7980,10 +7992,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="2" t="s">
+      <c r="J272" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8027,28 +8039,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="2">
+      <c r="A274" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="2">
+      <c r="C274" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8073,28 +8085,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="2">
+      <c r="C276" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="2">
+      <c r="D276" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="2">
+      <c r="I276" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8182,10 +8194,10 @@
       <c r="I279">
         <f>((C279-C278)^2+(D279- D278)^2)^.5</f>
       </c>
-      <c r="J279" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K279" s="2" t="s">
+      <c r="J279" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K279" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L279" t="n">
@@ -8229,28 +8241,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s" s="2">
+      <c r="A281" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B281" t="s" s="2">
+      <c r="B281" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C281" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D281" t="s" s="2">
+      <c r="C281" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D281" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E281" t="s" s="2">
+      <c r="E281" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F281" t="s" s="2">
+      <c r="F281" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G281" t="s" s="2">
+      <c r="G281" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H281" t="s" s="2">
+      <c r="H281" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8275,28 +8287,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C283" t="s" s="2">
+      <c r="C283" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D283" t="s" s="2">
+      <c r="D283" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I283" t="s" s="2">
+      <c r="I283" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8355,10 +8367,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="2" t="s">
+      <c r="J285" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8402,28 +8414,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="2">
+      <c r="A287" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="2">
+      <c r="B287" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="2">
+      <c r="C287" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="2">
+      <c r="E287" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="2">
+      <c r="F287" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="2">
+      <c r="G287" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="2">
+      <c r="H287" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8448,28 +8460,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="2">
+      <c r="B289" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="2">
+      <c r="C289" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="2">
+      <c r="D289" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="2">
+      <c r="E289" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="2">
+      <c r="F289" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="2">
+      <c r="G289" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="2">
+      <c r="H289" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="2">
+      <c r="I289" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8528,10 +8540,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="2" t="s">
+      <c r="J291" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8575,28 +8587,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="2">
+      <c r="A293" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="2">
+      <c r="B293" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="2">
+      <c r="C293" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="2">
+      <c r="E293" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="2">
+      <c r="F293" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="2">
+      <c r="G293" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="2">
+      <c r="H293" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8621,28 +8633,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="2">
+      <c r="B295" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="2">
+      <c r="C295" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="2">
+      <c r="D295" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="2">
+      <c r="E295" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="2">
+      <c r="F295" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="2">
+      <c r="G295" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="2">
+      <c r="H295" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="2">
+      <c r="I295" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8701,10 +8713,10 @@
       <c r="I297">
         <f>((C297-C296)^2+(D297- D296)^2)^.5</f>
       </c>
-      <c r="J297" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K297" s="2" t="s">
+      <c r="J297" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K297" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L297" t="n">
@@ -8748,28 +8760,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="2">
+      <c r="A299" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C299" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D299" t="s" s="2">
+      <c r="C299" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8794,28 +8806,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="2">
+      <c r="B301" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C301" t="s" s="2">
+      <c r="C301" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D301" t="s" s="2">
+      <c r="D301" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E301" t="s" s="2">
+      <c r="E301" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F301" t="s" s="2">
+      <c r="F301" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G301" t="s" s="2">
+      <c r="G301" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H301" t="s" s="2">
+      <c r="H301" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I301" t="s" s="2">
+      <c r="I301" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8874,10 +8886,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="2" t="s">
+      <c r="J303" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8921,28 +8933,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="2">
+      <c r="A305" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="2">
+      <c r="B305" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="2">
+      <c r="C305" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="2">
+      <c r="E305" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="2">
+      <c r="F305" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="2">
+      <c r="G305" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="2">
+      <c r="H305" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8967,28 +8979,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="2">
+      <c r="B307" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="2">
+      <c r="C307" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="2">
+      <c r="D307" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="2">
+      <c r="E307" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="2">
+      <c r="F307" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="2">
+      <c r="G307" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="2">
+      <c r="H307" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="2">
+      <c r="I307" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9047,10 +9059,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="2" t="s">
+      <c r="J309" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9094,28 +9106,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="2">
+      <c r="A311" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="2">
+      <c r="B311" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="2">
+      <c r="C311" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="2">
+      <c r="E311" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="2">
+      <c r="F311" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="2">
+      <c r="G311" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="2">
+      <c r="H311" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9140,28 +9152,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="2">
+      <c r="B313" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="2">
+      <c r="C313" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="2">
+      <c r="D313" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="2">
+      <c r="E313" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="2">
+      <c r="F313" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="2">
+      <c r="G313" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="2">
+      <c r="H313" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="2">
+      <c r="I313" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9220,10 +9232,10 @@
       <c r="I315">
         <f>((C315-C314)^2+(D315- D314)^2)^.5</f>
       </c>
-      <c r="J315" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K315" s="2" t="s">
+      <c r="J315" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K315" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L315" t="n">
@@ -9267,28 +9279,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="s" s="2">
+      <c r="A317" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B317" t="s" s="2">
+      <c r="B317" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C317" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D317" t="s" s="2">
+      <c r="C317" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D317" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E317" t="s" s="2">
+      <c r="E317" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F317" t="s" s="2">
+      <c r="F317" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G317" t="s" s="2">
+      <c r="G317" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H317" t="s" s="2">
+      <c r="H317" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9313,28 +9325,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="B319" t="s" s="2">
+      <c r="B319" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C319" t="s" s="2">
+      <c r="C319" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D319" t="s" s="2">
+      <c r="D319" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E319" t="s" s="2">
+      <c r="E319" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F319" t="s" s="2">
+      <c r="F319" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G319" t="s" s="2">
+      <c r="G319" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H319" t="s" s="2">
+      <c r="H319" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I319" t="s" s="2">
+      <c r="I319" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9393,10 +9405,10 @@
       <c r="I321">
         <f>((C321-C320)^2+(D321- D320)^2)^.5</f>
       </c>
-      <c r="J321" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K321" s="2" t="s">
+      <c r="J321" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K321" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L321" t="n">
@@ -9440,28 +9452,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="s" s="2">
+      <c r="A323" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B323" t="s" s="2">
+      <c r="B323" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C323" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D323" t="s" s="2">
+      <c r="C323" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D323" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E323" t="s" s="2">
+      <c r="E323" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F323" t="s" s="2">
+      <c r="F323" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G323" t="s" s="2">
+      <c r="G323" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H323" t="s" s="2">
+      <c r="H323" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9486,28 +9498,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="B325" t="s" s="2">
+      <c r="B325" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C325" t="s" s="2">
+      <c r="C325" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D325" t="s" s="2">
+      <c r="D325" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E325" t="s" s="2">
+      <c r="E325" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F325" t="s" s="2">
+      <c r="F325" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G325" t="s" s="2">
+      <c r="G325" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H325" t="s" s="2">
+      <c r="H325" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I325" t="s" s="2">
+      <c r="I325" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9566,10 +9578,10 @@
       <c r="I327">
         <f>((C327-C326)^2+(D327- D326)^2)^.5</f>
       </c>
-      <c r="J327" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K327" s="2" t="s">
+      <c r="J327" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K327" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L327" t="n">
@@ -9613,28 +9625,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="s" s="2">
+      <c r="A329" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B329" t="s" s="2">
+      <c r="B329" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C329" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D329" t="s" s="2">
+      <c r="C329" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D329" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E329" t="s" s="2">
+      <c r="E329" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F329" t="s" s="2">
+      <c r="F329" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G329" t="s" s="2">
+      <c r="G329" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H329" t="s" s="2">
+      <c r="H329" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9659,28 +9671,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="B331" t="s" s="2">
+      <c r="B331" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C331" t="s" s="2">
+      <c r="C331" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D331" t="s" s="2">
+      <c r="D331" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E331" t="s" s="2">
+      <c r="E331" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F331" t="s" s="2">
+      <c r="F331" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G331" t="s" s="2">
+      <c r="G331" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H331" t="s" s="2">
+      <c r="H331" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I331" t="s" s="2">
+      <c r="I331" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9739,10 +9751,10 @@
       <c r="I333">
         <f>((C333-C332)^2+(D333- D332)^2)^.5</f>
       </c>
-      <c r="J333" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K333" s="2" t="s">
+      <c r="J333" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K333" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L333" t="n">
@@ -9786,28 +9798,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="s" s="2">
+      <c r="A335" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B335" t="s" s="2">
+      <c r="B335" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C335" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D335" t="s" s="2">
+      <c r="C335" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D335" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E335" t="s" s="2">
+      <c r="E335" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F335" t="s" s="2">
+      <c r="F335" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G335" t="s" s="2">
+      <c r="G335" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H335" t="s" s="2">
+      <c r="H335" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9832,28 +9844,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="B337" t="s" s="2">
+      <c r="B337" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C337" t="s" s="2">
+      <c r="C337" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D337" t="s" s="2">
+      <c r="D337" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E337" t="s" s="2">
+      <c r="E337" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F337" t="s" s="2">
+      <c r="F337" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G337" t="s" s="2">
+      <c r="G337" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H337" t="s" s="2">
+      <c r="H337" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I337" t="s" s="2">
+      <c r="I337" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9912,10 +9924,10 @@
       <c r="I339">
         <f>((C339-C338)^2+(D339- D338)^2)^.5</f>
       </c>
-      <c r="J339" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K339" s="2" t="s">
+      <c r="J339" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K339" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L339" t="n">
@@ -9959,28 +9971,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="s" s="2">
+      <c r="A341" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B341" t="s" s="2">
+      <c r="B341" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C341" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D341" t="s" s="2">
+      <c r="C341" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D341" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E341" t="s" s="2">
+      <c r="E341" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F341" t="s" s="2">
+      <c r="F341" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G341" t="s" s="2">
+      <c r="G341" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H341" t="s" s="2">
+      <c r="H341" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10005,28 +10017,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="B343" t="s" s="2">
+      <c r="B343" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C343" t="s" s="2">
+      <c r="C343" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D343" t="s" s="2">
+      <c r="D343" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E343" t="s" s="2">
+      <c r="E343" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F343" t="s" s="2">
+      <c r="F343" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G343" t="s" s="2">
+      <c r="G343" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H343" t="s" s="2">
+      <c r="H343" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I343" t="s" s="2">
+      <c r="I343" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10085,10 +10097,10 @@
       <c r="I345">
         <f>((C345-C344)^2+(D345- D344)^2)^.5</f>
       </c>
-      <c r="J345" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K345" s="2" t="s">
+      <c r="J345" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K345" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L345" t="n">
@@ -10132,28 +10144,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="s" s="2">
+      <c r="A347" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B347" t="s" s="2">
+      <c r="B347" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C347" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D347" t="s" s="2">
+      <c r="C347" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D347" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E347" t="s" s="2">
+      <c r="E347" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F347" t="s" s="2">
+      <c r="F347" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G347" t="s" s="2">
+      <c r="G347" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H347" t="s" s="2">
+      <c r="H347" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10178,28 +10190,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="B349" t="s" s="2">
+      <c r="B349" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C349" t="s" s="2">
+      <c r="C349" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D349" t="s" s="2">
+      <c r="D349" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E349" t="s" s="2">
+      <c r="E349" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F349" t="s" s="2">
+      <c r="F349" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G349" t="s" s="2">
+      <c r="G349" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H349" t="s" s="2">
+      <c r="H349" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I349" t="s" s="2">
+      <c r="I349" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10258,10 +10270,10 @@
       <c r="I351">
         <f>((C351-C350)^2+(D351- D350)^2)^.5</f>
       </c>
-      <c r="J351" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K351" s="2" t="s">
+      <c r="J351" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K351" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L351" t="n">
@@ -10305,28 +10317,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="s" s="2">
+      <c r="A353" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B353" t="s" s="2">
+      <c r="B353" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C353" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D353" t="s" s="2">
+      <c r="C353" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D353" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E353" t="s" s="2">
+      <c r="E353" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F353" t="s" s="2">
+      <c r="F353" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G353" t="s" s="2">
+      <c r="G353" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H353" t="s" s="2">
+      <c r="H353" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10351,28 +10363,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="B355" t="s" s="2">
+      <c r="B355" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C355" t="s" s="2">
+      <c r="C355" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D355" t="s" s="2">
+      <c r="D355" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E355" t="s" s="2">
+      <c r="E355" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F355" t="s" s="2">
+      <c r="F355" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G355" t="s" s="2">
+      <c r="G355" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H355" t="s" s="2">
+      <c r="H355" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I355" t="s" s="2">
+      <c r="I355" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10460,10 +10472,10 @@
       <c r="I358">
         <f>((C358-C357)^2+(D358- D357)^2)^.5</f>
       </c>
-      <c r="J358" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K358" s="2" t="s">
+      <c r="J358" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K358" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L358" t="n">
@@ -10507,28 +10519,28 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="s" s="2">
+      <c r="A360" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B360" t="s" s="2">
+      <c r="B360" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C360" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D360" t="s" s="2">
+      <c r="C360" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D360" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E360" t="s" s="2">
+      <c r="E360" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F360" t="s" s="2">
+      <c r="F360" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G360" t="s" s="2">
+      <c r="G360" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H360" t="s" s="2">
+      <c r="H360" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10553,28 +10565,28 @@
       </c>
     </row>
     <row r="362">
-      <c r="B362" t="s" s="2">
+      <c r="B362" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C362" t="s" s="2">
+      <c r="C362" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D362" t="s" s="2">
+      <c r="D362" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E362" t="s" s="2">
+      <c r="E362" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F362" t="s" s="2">
+      <c r="F362" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G362" t="s" s="2">
+      <c r="G362" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H362" t="s" s="2">
+      <c r="H362" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I362" t="s" s="2">
+      <c r="I362" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10633,10 +10645,10 @@
       <c r="I364">
         <f>((C364-C363)^2+(D364- D363)^2)^.5</f>
       </c>
-      <c r="J364" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K364" s="2" t="s">
+      <c r="J364" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K364" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L364" t="n">
@@ -10680,28 +10692,28 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="s" s="2">
+      <c r="A366" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B366" t="s" s="2">
+      <c r="B366" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C366" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D366" t="s" s="2">
+      <c r="C366" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D366" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E366" t="s" s="2">
+      <c r="E366" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F366" t="s" s="2">
+      <c r="F366" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G366" t="s" s="2">
+      <c r="G366" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H366" t="s" s="2">
+      <c r="H366" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10726,28 +10738,28 @@
       </c>
     </row>
     <row r="368">
-      <c r="B368" t="s" s="2">
+      <c r="B368" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C368" t="s" s="2">
+      <c r="C368" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D368" t="s" s="2">
+      <c r="D368" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E368" t="s" s="2">
+      <c r="E368" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F368" t="s" s="2">
+      <c r="F368" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G368" t="s" s="2">
+      <c r="G368" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H368" t="s" s="2">
+      <c r="H368" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I368" t="s" s="2">
+      <c r="I368" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10806,10 +10818,10 @@
       <c r="I370">
         <f>((C370-C369)^2+(D370- D369)^2)^.5</f>
       </c>
-      <c r="J370" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K370" s="2" t="s">
+      <c r="J370" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K370" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L370" t="n">
@@ -10853,28 +10865,28 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="s" s="2">
+      <c r="A372" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B372" t="s" s="2">
+      <c r="B372" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C372" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D372" t="s" s="2">
+      <c r="C372" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D372" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E372" t="s" s="2">
+      <c r="E372" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F372" t="s" s="2">
+      <c r="F372" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G372" t="s" s="2">
+      <c r="G372" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H372" t="s" s="2">
+      <c r="H372" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10899,28 +10911,28 @@
       </c>
     </row>
     <row r="374">
-      <c r="B374" t="s" s="2">
+      <c r="B374" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C374" t="s" s="2">
+      <c r="C374" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D374" t="s" s="2">
+      <c r="D374" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E374" t="s" s="2">
+      <c r="E374" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F374" t="s" s="2">
+      <c r="F374" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G374" t="s" s="2">
+      <c r="G374" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H374" t="s" s="2">
+      <c r="H374" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I374" t="s" s="2">
+      <c r="I374" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10979,10 +10991,10 @@
       <c r="I376">
         <f>((C376-C375)^2+(D376- D375)^2)^.5</f>
       </c>
-      <c r="J376" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K376" s="2" t="s">
+      <c r="J376" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K376" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L376" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4024" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12072" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -344,10 +392,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="4" t="s">
+      <c r="J7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -391,28 +439,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="4">
+      <c r="A9" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="4">
+      <c r="B9" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="4">
+      <c r="C9" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="4">
+      <c r="E9" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="4">
+      <c r="F9" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="4">
+      <c r="G9" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="4">
+      <c r="H9" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -437,28 +485,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="4">
+      <c r="B11" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="4">
+      <c r="C11" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="4">
+      <c r="D11" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="4">
+      <c r="E11" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="4">
+      <c r="F11" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="4">
+      <c r="G11" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="4">
+      <c r="H11" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="4">
+      <c r="I11" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -720,10 +768,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="4" t="s">
+      <c r="J20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -767,28 +815,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="4">
+      <c r="A22" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="4">
+      <c r="B22" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s" s="4">
+      <c r="C22" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="4">
+      <c r="E22" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="4">
+      <c r="F22" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="4">
+      <c r="G22" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="4">
+      <c r="H22" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -813,28 +861,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="4">
+      <c r="B24" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="4">
+      <c r="C24" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="4">
+      <c r="D24" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="4">
+      <c r="E24" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="4">
+      <c r="F24" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="4">
+      <c r="G24" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="4">
+      <c r="H24" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="4">
+      <c r="I24" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -922,10 +970,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="4" t="s">
+      <c r="J27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -969,28 +1017,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="4">
+      <c r="A29" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="4">
+      <c r="B29" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="4">
+      <c r="C29" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="4">
+      <c r="E29" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="4">
+      <c r="F29" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="4">
+      <c r="G29" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="4">
+      <c r="H29" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1015,28 +1063,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="4">
+      <c r="B31" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="4">
+      <c r="C31" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="4">
+      <c r="D31" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="4">
+      <c r="E31" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="4">
+      <c r="F31" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="4">
+      <c r="G31" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="4">
+      <c r="H31" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="4">
+      <c r="I31" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1095,10 +1143,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="4" t="s">
+      <c r="J33" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1142,28 +1190,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="4">
+      <c r="A35" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="4">
+      <c r="B35" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="4">
+      <c r="C35" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="4">
+      <c r="E35" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="4">
+      <c r="F35" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="4">
+      <c r="G35" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="4">
+      <c r="H35" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1188,28 +1236,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="4">
+      <c r="B37" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="4">
+      <c r="C37" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="4">
+      <c r="D37" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="4">
+      <c r="E37" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="4">
+      <c r="F37" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="4">
+      <c r="G37" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="4">
+      <c r="H37" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="4">
+      <c r="I37" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1268,10 +1316,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="4" t="s">
+      <c r="J39" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1315,28 +1363,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="4">
+      <c r="A41" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="4">
+      <c r="B41" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="4">
+      <c r="C41" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="4">
+      <c r="E41" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="4">
+      <c r="F41" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="4">
+      <c r="G41" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="4">
+      <c r="H41" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1361,28 +1409,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="4">
+      <c r="B43" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="4">
+      <c r="C43" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="4">
+      <c r="D43" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="4">
+      <c r="E43" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="4">
+      <c r="F43" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="4">
+      <c r="G43" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="4">
+      <c r="H43" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="4">
+      <c r="I43" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1441,10 +1489,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="4" t="s">
+      <c r="J45" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1488,28 +1536,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="4">
+      <c r="A47" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="4">
+      <c r="B47" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="4">
+      <c r="C47" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="4">
+      <c r="E47" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="4">
+      <c r="F47" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="4">
+      <c r="G47" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="4">
+      <c r="H47" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1534,28 +1582,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="4">
+      <c r="B49" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="4">
+      <c r="C49" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="4">
+      <c r="D49" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="4">
+      <c r="E49" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="4">
+      <c r="F49" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="4">
+      <c r="G49" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="4">
+      <c r="H49" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="4">
+      <c r="I49" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1643,10 +1691,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="4" t="s">
+      <c r="J52" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1690,28 +1738,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="4">
+      <c r="A54" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="4">
+      <c r="B54" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="4">
+      <c r="C54" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="4">
+      <c r="E54" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="4">
+      <c r="F54" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="4">
+      <c r="G54" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="4">
+      <c r="H54" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1736,28 +1784,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="4">
+      <c r="B56" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="4">
+      <c r="C56" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="4">
+      <c r="D56" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="4">
+      <c r="E56" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="4">
+      <c r="F56" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="4">
+      <c r="G56" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="4">
+      <c r="H56" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="4">
+      <c r="I56" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1816,10 +1864,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="4" t="s">
+      <c r="J58" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1863,28 +1911,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="4">
+      <c r="A60" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="4">
+      <c r="B60" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="4">
+      <c r="C60" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="4">
+      <c r="E60" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="4">
+      <c r="F60" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="4">
+      <c r="G60" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="4">
+      <c r="H60" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1909,28 +1957,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="4">
+      <c r="B62" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="4">
+      <c r="C62" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="4">
+      <c r="D62" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="4">
+      <c r="E62" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="4">
+      <c r="F62" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="4">
+      <c r="G62" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="4">
+      <c r="H62" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="4">
+      <c r="I62" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1989,10 +2037,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="4" t="s">
+      <c r="J64" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2036,28 +2084,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="4">
+      <c r="A66" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="4">
+      <c r="B66" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="4">
+      <c r="C66" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="4">
+      <c r="E66" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="4">
+      <c r="F66" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="4">
+      <c r="G66" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="4">
+      <c r="H66" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2082,28 +2130,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="4">
+      <c r="B68" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="4">
+      <c r="C68" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="4">
+      <c r="D68" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="4">
+      <c r="E68" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="4">
+      <c r="F68" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="4">
+      <c r="G68" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="4">
+      <c r="H68" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="4">
+      <c r="I68" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2162,10 +2210,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="4" t="s">
+      <c r="J70" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2209,28 +2257,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="4">
+      <c r="A72" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="4">
+      <c r="B72" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="4">
+      <c r="C72" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="4">
+      <c r="E72" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="4">
+      <c r="F72" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="4">
+      <c r="G72" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="4">
+      <c r="H72" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2255,28 +2303,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="4">
+      <c r="B74" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="4">
+      <c r="C74" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="4">
+      <c r="D74" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="4">
+      <c r="E74" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="4">
+      <c r="F74" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="4">
+      <c r="G74" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="4">
+      <c r="H74" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="4">
+      <c r="I74" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2335,10 +2383,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="4" t="s">
+      <c r="J76" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2382,28 +2430,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="4">
+      <c r="A78" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="4">
+      <c r="B78" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s" s="4">
+      <c r="C78" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="4">
+      <c r="E78" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="4">
+      <c r="F78" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="4">
+      <c r="G78" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="4">
+      <c r="H78" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2428,28 +2476,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="4">
+      <c r="B80" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="4">
+      <c r="C80" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="4">
+      <c r="D80" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="4">
+      <c r="E80" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="4">
+      <c r="F80" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="4">
+      <c r="G80" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="4">
+      <c r="H80" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="4">
+      <c r="I80" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2508,10 +2556,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="4" t="s">
+      <c r="J82" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2555,28 +2603,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="4">
+      <c r="A84" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="4">
+      <c r="B84" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="4">
+      <c r="C84" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="4">
+      <c r="E84" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="4">
+      <c r="F84" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="4">
+      <c r="G84" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="4">
+      <c r="H84" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2601,28 +2649,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="4">
+      <c r="B86" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="4">
+      <c r="C86" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="4">
+      <c r="D86" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="4">
+      <c r="E86" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="4">
+      <c r="F86" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="4">
+      <c r="G86" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="4">
+      <c r="H86" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="4">
+      <c r="I86" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2681,10 +2729,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="4" t="s">
+      <c r="J88" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2728,28 +2776,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="4">
+      <c r="A90" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="4">
+      <c r="B90" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="4">
+      <c r="C90" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="4">
+      <c r="E90" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="4">
+      <c r="F90" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="4">
+      <c r="G90" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="4">
+      <c r="H90" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2774,28 +2822,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="4">
+      <c r="B92" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="4">
+      <c r="C92" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="4">
+      <c r="D92" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="4">
+      <c r="E92" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="4">
+      <c r="F92" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="4">
+      <c r="G92" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="4">
+      <c r="H92" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="4">
+      <c r="I92" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2854,10 +2902,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="4" t="s">
+      <c r="J94" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2901,28 +2949,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="4">
+      <c r="A96" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="4">
+      <c r="B96" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="4">
+      <c r="C96" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="4">
+      <c r="E96" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="4">
+      <c r="F96" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="4">
+      <c r="G96" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="4">
+      <c r="H96" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2947,28 +2995,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="4">
+      <c r="B98" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="4">
+      <c r="C98" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="4">
+      <c r="D98" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="4">
+      <c r="E98" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="4">
+      <c r="F98" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="4">
+      <c r="G98" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="4">
+      <c r="H98" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="4">
+      <c r="I98" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3288,10 +3336,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="4" t="s">
+      <c r="J109" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3335,28 +3383,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="4">
+      <c r="A111" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="4">
+      <c r="B111" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="4">
+      <c r="C111" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="4">
+      <c r="E111" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="4">
+      <c r="F111" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="4">
+      <c r="G111" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="4">
+      <c r="H111" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3381,28 +3429,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="4">
+      <c r="B113" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="4">
+      <c r="C113" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="4">
+      <c r="D113" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="4">
+      <c r="E113" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="4">
+      <c r="F113" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="4">
+      <c r="G113" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="4">
+      <c r="H113" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="4">
+      <c r="I113" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3461,10 +3509,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="4" t="s">
+      <c r="J115" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3508,28 +3556,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="4">
+      <c r="A117" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="4">
+      <c r="B117" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="4">
+      <c r="C117" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="4">
+      <c r="E117" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="4">
+      <c r="F117" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="4">
+      <c r="G117" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="4">
+      <c r="H117" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3554,28 +3602,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="4">
+      <c r="B119" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="4">
+      <c r="C119" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="4">
+      <c r="D119" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="4">
+      <c r="E119" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="4">
+      <c r="F119" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="4">
+      <c r="G119" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="4">
+      <c r="H119" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="4">
+      <c r="I119" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3634,10 +3682,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="4" t="s">
+      <c r="J121" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3681,28 +3729,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="4">
+      <c r="A123" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="4">
+      <c r="B123" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="4">
+      <c r="C123" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="4">
+      <c r="E123" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="4">
+      <c r="F123" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="4">
+      <c r="G123" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="4">
+      <c r="H123" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3727,28 +3775,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="4">
+      <c r="B125" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="4">
+      <c r="C125" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="4">
+      <c r="D125" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="4">
+      <c r="E125" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="4">
+      <c r="F125" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="4">
+      <c r="G125" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="4">
+      <c r="H125" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="4">
+      <c r="I125" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3807,10 +3855,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="4" t="s">
+      <c r="J127" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3854,28 +3902,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="4">
+      <c r="A129" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="4">
+      <c r="B129" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="4">
+      <c r="C129" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="4">
+      <c r="E129" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="4">
+      <c r="F129" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="4">
+      <c r="G129" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="4">
+      <c r="H129" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3900,28 +3948,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="4">
+      <c r="B131" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="4">
+      <c r="C131" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="4">
+      <c r="D131" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="4">
+      <c r="E131" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="4">
+      <c r="F131" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="4">
+      <c r="G131" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="4">
+      <c r="H131" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="4">
+      <c r="I131" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3980,10 +4028,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="4" t="s">
+      <c r="J133" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4027,28 +4075,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="4">
+      <c r="A135" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="4">
+      <c r="B135" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="4">
+      <c r="C135" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="4">
+      <c r="E135" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="4">
+      <c r="F135" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="4">
+      <c r="G135" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="4">
+      <c r="H135" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4073,28 +4121,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="4">
+      <c r="B137" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="4">
+      <c r="C137" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="4">
+      <c r="D137" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="4">
+      <c r="E137" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="4">
+      <c r="F137" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="4">
+      <c r="G137" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="4">
+      <c r="H137" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="4">
+      <c r="I137" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4182,10 +4230,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="4" t="s">
+      <c r="J140" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4229,28 +4277,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="4">
+      <c r="A142" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="4">
+      <c r="B142" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="4">
+      <c r="C142" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="4">
+      <c r="E142" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="4">
+      <c r="F142" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="4">
+      <c r="G142" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="4">
+      <c r="H142" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4275,28 +4323,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="4">
+      <c r="B144" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="4">
+      <c r="C144" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="4">
+      <c r="D144" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="4">
+      <c r="E144" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="4">
+      <c r="F144" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="4">
+      <c r="G144" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="4">
+      <c r="H144" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="4">
+      <c r="I144" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4355,10 +4403,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="4" t="s">
+      <c r="J146" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4402,28 +4450,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="4">
+      <c r="A148" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="4">
+      <c r="B148" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="4">
+      <c r="C148" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="4">
+      <c r="E148" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="4">
+      <c r="F148" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="4">
+      <c r="G148" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="4">
+      <c r="H148" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4448,28 +4496,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="4">
+      <c r="B150" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="4">
+      <c r="C150" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="4">
+      <c r="D150" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="4">
+      <c r="E150" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="4">
+      <c r="F150" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="4">
+      <c r="G150" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="4">
+      <c r="H150" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="4">
+      <c r="I150" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4557,10 +4605,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="4" t="s">
+      <c r="J153" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4604,28 +4652,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="4">
+      <c r="A155" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="4">
+      <c r="B155" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="4">
+      <c r="C155" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="4">
+      <c r="E155" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="4">
+      <c r="F155" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="4">
+      <c r="G155" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="4">
+      <c r="H155" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4650,28 +4698,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="4">
+      <c r="B157" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="4">
+      <c r="C157" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="4">
+      <c r="D157" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="4">
+      <c r="E157" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="4">
+      <c r="F157" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="4">
+      <c r="G157" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="4">
+      <c r="H157" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="4">
+      <c r="I157" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4759,10 +4807,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="4" t="s">
+      <c r="J160" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4806,28 +4854,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="4">
+      <c r="A162" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="4">
+      <c r="B162" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="4">
+      <c r="C162" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="4">
+      <c r="E162" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="4">
+      <c r="F162" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="4">
+      <c r="G162" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="4">
+      <c r="H162" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4852,28 +4900,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="4">
+      <c r="B164" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="4">
+      <c r="C164" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="4">
+      <c r="D164" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="4">
+      <c r="E164" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="4">
+      <c r="F164" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="4">
+      <c r="G164" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="4">
+      <c r="H164" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="4">
+      <c r="I164" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5222,10 +5270,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="4" t="s">
+      <c r="J176" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5269,28 +5317,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="4">
+      <c r="A178" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="4">
+      <c r="B178" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="4">
+      <c r="C178" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="4">
+      <c r="E178" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="4">
+      <c r="F178" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="4">
+      <c r="G178" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="4">
+      <c r="H178" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5315,28 +5363,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="4">
+      <c r="B180" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="4">
+      <c r="C180" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="4">
+      <c r="D180" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="4">
+      <c r="E180" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="4">
+      <c r="F180" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="4">
+      <c r="G180" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="4">
+      <c r="H180" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="4">
+      <c r="I180" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5395,10 +5443,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="4" t="s">
+      <c r="J182" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5442,28 +5490,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="4">
+      <c r="A184" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="4">
+      <c r="B184" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="4">
+      <c r="C184" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="4">
+      <c r="E184" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="4">
+      <c r="F184" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="4">
+      <c r="G184" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="4">
+      <c r="H184" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5488,28 +5536,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="4">
+      <c r="B186" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="4">
+      <c r="C186" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="4">
+      <c r="D186" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="4">
+      <c r="E186" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="4">
+      <c r="F186" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="4">
+      <c r="G186" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="4">
+      <c r="H186" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="4">
+      <c r="I186" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5568,10 +5616,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="4" t="s">
+      <c r="J188" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5615,28 +5663,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="4">
+      <c r="A190" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="4">
+      <c r="B190" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="4">
+      <c r="C190" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="4">
+      <c r="E190" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="4">
+      <c r="F190" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="4">
+      <c r="G190" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="4">
+      <c r="H190" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5661,28 +5709,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="4">
+      <c r="B192" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="4">
+      <c r="C192" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="4">
+      <c r="D192" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="4">
+      <c r="E192" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="4">
+      <c r="F192" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="4">
+      <c r="G192" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="4">
+      <c r="H192" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="4">
+      <c r="I192" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5741,10 +5789,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="4" t="s">
+      <c r="J194" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5788,28 +5836,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="4">
+      <c r="A196" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="4">
+      <c r="B196" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="4">
+      <c r="C196" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="4">
+      <c r="E196" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="4">
+      <c r="F196" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="4">
+      <c r="G196" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="4">
+      <c r="H196" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5834,28 +5882,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="4">
+      <c r="B198" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="4">
+      <c r="C198" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="4">
+      <c r="D198" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="4">
+      <c r="E198" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="4">
+      <c r="F198" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="4">
+      <c r="G198" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="4">
+      <c r="H198" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="4">
+      <c r="I198" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5943,10 +5991,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="4" t="s">
+      <c r="J201" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5990,28 +6038,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="4">
+      <c r="A203" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="4">
+      <c r="B203" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="4">
+      <c r="C203" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="4">
+      <c r="E203" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="4">
+      <c r="F203" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="4">
+      <c r="G203" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="4">
+      <c r="H203" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6036,28 +6084,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="4">
+      <c r="B205" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="4">
+      <c r="C205" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="4">
+      <c r="D205" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="4">
+      <c r="E205" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="4">
+      <c r="F205" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="4">
+      <c r="G205" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="4">
+      <c r="H205" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="4">
+      <c r="I205" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6116,10 +6164,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="4" t="s">
+      <c r="J207" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6163,28 +6211,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="4">
+      <c r="A209" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="4">
+      <c r="B209" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="4">
+      <c r="C209" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="4">
+      <c r="E209" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="4">
+      <c r="F209" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="4">
+      <c r="G209" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="4">
+      <c r="H209" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6209,28 +6257,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="4">
+      <c r="B211" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="4">
+      <c r="C211" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="4">
+      <c r="D211" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="4">
+      <c r="E211" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="4">
+      <c r="F211" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="4">
+      <c r="G211" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="4">
+      <c r="H211" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="4">
+      <c r="I211" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6289,10 +6337,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="4" t="s">
+      <c r="J213" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6336,28 +6384,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="4">
+      <c r="A215" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="4">
+      <c r="B215" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="4">
+      <c r="C215" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="4">
+      <c r="E215" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="4">
+      <c r="F215" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="4">
+      <c r="G215" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="4">
+      <c r="H215" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6382,28 +6430,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="4">
+      <c r="B217" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="4">
+      <c r="C217" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="4">
+      <c r="D217" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="4">
+      <c r="E217" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="4">
+      <c r="F217" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="4">
+      <c r="G217" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="4">
+      <c r="H217" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="4">
+      <c r="I217" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6462,10 +6510,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="4" t="s">
+      <c r="J219" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6509,28 +6557,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="4">
+      <c r="A221" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="4">
+      <c r="B221" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="4">
+      <c r="C221" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="4">
+      <c r="E221" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="4">
+      <c r="F221" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="4">
+      <c r="G221" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="4">
+      <c r="H221" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6555,28 +6603,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="4">
+      <c r="B223" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="4">
+      <c r="C223" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="4">
+      <c r="D223" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="4">
+      <c r="E223" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="4">
+      <c r="F223" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="4">
+      <c r="G223" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="4">
+      <c r="H223" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="4">
+      <c r="I223" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6635,10 +6683,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="4" t="s">
+      <c r="J225" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6682,28 +6730,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="4">
+      <c r="A227" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="4">
+      <c r="B227" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="4">
+      <c r="C227" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="4">
+      <c r="E227" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="4">
+      <c r="F227" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="4">
+      <c r="G227" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="4">
+      <c r="H227" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6728,28 +6776,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="4">
+      <c r="B229" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="4">
+      <c r="C229" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="4">
+      <c r="D229" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="4">
+      <c r="E229" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="4">
+      <c r="F229" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="4">
+      <c r="G229" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="4">
+      <c r="H229" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="4">
+      <c r="I229" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6808,10 +6856,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="4" t="s">
+      <c r="J231" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6855,28 +6903,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="4">
+      <c r="A233" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="4">
+      <c r="B233" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="4">
+      <c r="C233" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="4">
+      <c r="E233" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="4">
+      <c r="F233" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="4">
+      <c r="G233" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="4">
+      <c r="H233" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6901,28 +6949,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="4">
+      <c r="B235" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="4">
+      <c r="C235" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="4">
+      <c r="D235" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="4">
+      <c r="E235" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="4">
+      <c r="F235" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="4">
+      <c r="G235" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="4">
+      <c r="H235" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="4">
+      <c r="I235" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6981,10 +7029,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="4" t="s">
+      <c r="J237" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7028,28 +7076,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="4">
+      <c r="A239" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="4">
+      <c r="B239" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="4">
+      <c r="C239" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="4">
+      <c r="E239" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="4">
+      <c r="F239" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="4">
+      <c r="G239" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="4">
+      <c r="H239" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7074,28 +7122,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="4">
+      <c r="B241" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="4">
+      <c r="C241" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="4">
+      <c r="D241" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="4">
+      <c r="E241" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="4">
+      <c r="F241" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="4">
+      <c r="G241" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="4">
+      <c r="H241" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="4">
+      <c r="I241" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7473,10 +7521,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="4" t="s">
+      <c r="J254" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7520,28 +7568,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="4">
+      <c r="A256" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="4">
+      <c r="B256" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="4">
+      <c r="C256" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="4">
+      <c r="E256" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="4">
+      <c r="F256" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="4">
+      <c r="G256" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="4">
+      <c r="H256" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7566,28 +7614,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="4">
+      <c r="B258" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="4">
+      <c r="C258" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="4">
+      <c r="D258" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="4">
+      <c r="E258" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="4">
+      <c r="F258" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="4">
+      <c r="G258" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="4">
+      <c r="H258" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="4">
+      <c r="I258" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7646,10 +7694,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="4" t="s">
+      <c r="J260" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7693,28 +7741,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="4">
+      <c r="A262" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="4">
+      <c r="B262" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="4">
+      <c r="C262" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="4">
+      <c r="E262" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="4">
+      <c r="F262" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="4">
+      <c r="G262" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="4">
+      <c r="H262" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7739,28 +7787,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="4">
+      <c r="B264" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="4">
+      <c r="C264" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="4">
+      <c r="D264" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="4">
+      <c r="E264" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="4">
+      <c r="F264" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="4">
+      <c r="G264" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="4">
+      <c r="H264" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="4">
+      <c r="I264" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7819,10 +7867,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="4" t="s">
+      <c r="J266" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7866,28 +7914,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="4">
+      <c r="A268" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="4">
+      <c r="B268" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="4">
+      <c r="C268" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="4">
+      <c r="E268" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="4">
+      <c r="F268" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="4">
+      <c r="G268" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="4">
+      <c r="H268" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7912,28 +7960,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="4">
+      <c r="B270" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="4">
+      <c r="C270" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="4">
+      <c r="D270" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="4">
+      <c r="E270" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="4">
+      <c r="F270" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="4">
+      <c r="G270" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="4">
+      <c r="H270" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="4">
+      <c r="I270" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7992,10 +8040,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="4" t="s">
+      <c r="J272" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8039,28 +8087,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="4">
+      <c r="A274" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="4">
+      <c r="B274" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="4">
+      <c r="C274" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="4">
+      <c r="E274" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="4">
+      <c r="F274" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="4">
+      <c r="G274" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="4">
+      <c r="H274" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8085,28 +8133,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="4">
+      <c r="B276" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="4">
+      <c r="C276" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="4">
+      <c r="D276" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="4">
+      <c r="E276" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="4">
+      <c r="F276" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="4">
+      <c r="G276" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="4">
+      <c r="H276" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="4">
+      <c r="I276" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8194,10 +8242,10 @@
       <c r="I279">
         <f>((C279-C278)^2+(D279- D278)^2)^.5</f>
       </c>
-      <c r="J279" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K279" s="4" t="s">
+      <c r="J279" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K279" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L279" t="n">
@@ -8241,28 +8289,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s" s="4">
+      <c r="A281" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B281" t="s" s="4">
+      <c r="B281" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C281" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D281" t="s" s="4">
+      <c r="C281" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D281" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E281" t="s" s="4">
+      <c r="E281" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F281" t="s" s="4">
+      <c r="F281" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G281" t="s" s="4">
+      <c r="G281" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H281" t="s" s="4">
+      <c r="H281" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8287,28 +8335,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="B283" t="s" s="4">
+      <c r="B283" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C283" t="s" s="4">
+      <c r="C283" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D283" t="s" s="4">
+      <c r="D283" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E283" t="s" s="4">
+      <c r="E283" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F283" t="s" s="4">
+      <c r="F283" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G283" t="s" s="4">
+      <c r="G283" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H283" t="s" s="4">
+      <c r="H283" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I283" t="s" s="4">
+      <c r="I283" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8367,10 +8415,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="4" t="s">
+      <c r="J285" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8414,28 +8462,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="4">
+      <c r="A287" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="4">
+      <c r="B287" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="4">
+      <c r="C287" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="4">
+      <c r="E287" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="4">
+      <c r="F287" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="4">
+      <c r="G287" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="4">
+      <c r="H287" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8460,28 +8508,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="4">
+      <c r="B289" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="4">
+      <c r="C289" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="4">
+      <c r="D289" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="4">
+      <c r="E289" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="4">
+      <c r="F289" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="4">
+      <c r="G289" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="4">
+      <c r="H289" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="4">
+      <c r="I289" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8540,10 +8588,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="4" t="s">
+      <c r="J291" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8587,28 +8635,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="4">
+      <c r="A293" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="4">
+      <c r="B293" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="4">
+      <c r="C293" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="4">
+      <c r="E293" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="4">
+      <c r="F293" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="4">
+      <c r="G293" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="4">
+      <c r="H293" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8633,28 +8681,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="4">
+      <c r="B295" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="4">
+      <c r="C295" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="4">
+      <c r="D295" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="4">
+      <c r="E295" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="4">
+      <c r="F295" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="4">
+      <c r="G295" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="4">
+      <c r="H295" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="4">
+      <c r="I295" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8713,10 +8761,10 @@
       <c r="I297">
         <f>((C297-C296)^2+(D297- D296)^2)^.5</f>
       </c>
-      <c r="J297" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K297" s="4" t="s">
+      <c r="J297" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K297" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L297" t="n">
@@ -8760,28 +8808,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="4">
+      <c r="A299" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B299" t="s" s="4">
+      <c r="B299" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C299" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D299" t="s" s="4">
+      <c r="C299" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E299" t="s" s="4">
+      <c r="E299" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F299" t="s" s="4">
+      <c r="F299" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G299" t="s" s="4">
+      <c r="G299" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H299" t="s" s="4">
+      <c r="H299" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8806,28 +8854,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="4">
+      <c r="B301" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C301" t="s" s="4">
+      <c r="C301" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D301" t="s" s="4">
+      <c r="D301" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E301" t="s" s="4">
+      <c r="E301" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F301" t="s" s="4">
+      <c r="F301" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G301" t="s" s="4">
+      <c r="G301" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H301" t="s" s="4">
+      <c r="H301" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I301" t="s" s="4">
+      <c r="I301" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8886,10 +8934,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="4" t="s">
+      <c r="J303" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8933,28 +8981,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="4">
+      <c r="A305" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="4">
+      <c r="B305" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="4">
+      <c r="C305" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="4">
+      <c r="E305" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="4">
+      <c r="F305" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="4">
+      <c r="G305" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="4">
+      <c r="H305" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8979,28 +9027,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="4">
+      <c r="B307" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="4">
+      <c r="C307" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="4">
+      <c r="D307" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="4">
+      <c r="E307" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="4">
+      <c r="F307" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="4">
+      <c r="G307" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="4">
+      <c r="H307" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="4">
+      <c r="I307" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9059,10 +9107,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="4" t="s">
+      <c r="J309" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9106,28 +9154,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="4">
+      <c r="A311" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="4">
+      <c r="B311" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="4">
+      <c r="C311" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="4">
+      <c r="E311" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="4">
+      <c r="F311" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="4">
+      <c r="G311" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="4">
+      <c r="H311" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9152,28 +9200,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="4">
+      <c r="B313" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="4">
+      <c r="C313" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="4">
+      <c r="D313" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="4">
+      <c r="E313" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="4">
+      <c r="F313" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="4">
+      <c r="G313" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="4">
+      <c r="H313" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="4">
+      <c r="I313" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9232,10 +9280,10 @@
       <c r="I315">
         <f>((C315-C314)^2+(D315- D314)^2)^.5</f>
       </c>
-      <c r="J315" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K315" s="4" t="s">
+      <c r="J315" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K315" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L315" t="n">
@@ -9279,28 +9327,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="s" s="4">
+      <c r="A317" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B317" t="s" s="4">
+      <c r="B317" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C317" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D317" t="s" s="4">
+      <c r="C317" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D317" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E317" t="s" s="4">
+      <c r="E317" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F317" t="s" s="4">
+      <c r="F317" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G317" t="s" s="4">
+      <c r="G317" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H317" t="s" s="4">
+      <c r="H317" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9325,28 +9373,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="B319" t="s" s="4">
+      <c r="B319" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C319" t="s" s="4">
+      <c r="C319" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D319" t="s" s="4">
+      <c r="D319" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E319" t="s" s="4">
+      <c r="E319" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F319" t="s" s="4">
+      <c r="F319" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G319" t="s" s="4">
+      <c r="G319" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H319" t="s" s="4">
+      <c r="H319" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I319" t="s" s="4">
+      <c r="I319" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9405,10 +9453,10 @@
       <c r="I321">
         <f>((C321-C320)^2+(D321- D320)^2)^.5</f>
       </c>
-      <c r="J321" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K321" s="4" t="s">
+      <c r="J321" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K321" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L321" t="n">
@@ -9452,28 +9500,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="s" s="4">
+      <c r="A323" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B323" t="s" s="4">
+      <c r="B323" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C323" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D323" t="s" s="4">
+      <c r="C323" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D323" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E323" t="s" s="4">
+      <c r="E323" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F323" t="s" s="4">
+      <c r="F323" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G323" t="s" s="4">
+      <c r="G323" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H323" t="s" s="4">
+      <c r="H323" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9498,28 +9546,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="B325" t="s" s="4">
+      <c r="B325" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C325" t="s" s="4">
+      <c r="C325" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D325" t="s" s="4">
+      <c r="D325" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E325" t="s" s="4">
+      <c r="E325" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F325" t="s" s="4">
+      <c r="F325" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G325" t="s" s="4">
+      <c r="G325" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H325" t="s" s="4">
+      <c r="H325" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I325" t="s" s="4">
+      <c r="I325" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9578,10 +9626,10 @@
       <c r="I327">
         <f>((C327-C326)^2+(D327- D326)^2)^.5</f>
       </c>
-      <c r="J327" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K327" s="4" t="s">
+      <c r="J327" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K327" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L327" t="n">
@@ -9625,28 +9673,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="s" s="4">
+      <c r="A329" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B329" t="s" s="4">
+      <c r="B329" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C329" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D329" t="s" s="4">
+      <c r="C329" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D329" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E329" t="s" s="4">
+      <c r="E329" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F329" t="s" s="4">
+      <c r="F329" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G329" t="s" s="4">
+      <c r="G329" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H329" t="s" s="4">
+      <c r="H329" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9671,28 +9719,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="B331" t="s" s="4">
+      <c r="B331" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C331" t="s" s="4">
+      <c r="C331" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D331" t="s" s="4">
+      <c r="D331" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E331" t="s" s="4">
+      <c r="E331" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F331" t="s" s="4">
+      <c r="F331" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G331" t="s" s="4">
+      <c r="G331" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H331" t="s" s="4">
+      <c r="H331" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I331" t="s" s="4">
+      <c r="I331" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9751,10 +9799,10 @@
       <c r="I333">
         <f>((C333-C332)^2+(D333- D332)^2)^.5</f>
       </c>
-      <c r="J333" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K333" s="4" t="s">
+      <c r="J333" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K333" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L333" t="n">
@@ -9798,28 +9846,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="s" s="4">
+      <c r="A335" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B335" t="s" s="4">
+      <c r="B335" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C335" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D335" t="s" s="4">
+      <c r="C335" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D335" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E335" t="s" s="4">
+      <c r="E335" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F335" t="s" s="4">
+      <c r="F335" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G335" t="s" s="4">
+      <c r="G335" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H335" t="s" s="4">
+      <c r="H335" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9844,28 +9892,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="B337" t="s" s="4">
+      <c r="B337" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C337" t="s" s="4">
+      <c r="C337" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D337" t="s" s="4">
+      <c r="D337" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E337" t="s" s="4">
+      <c r="E337" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F337" t="s" s="4">
+      <c r="F337" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G337" t="s" s="4">
+      <c r="G337" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H337" t="s" s="4">
+      <c r="H337" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I337" t="s" s="4">
+      <c r="I337" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9924,10 +9972,10 @@
       <c r="I339">
         <f>((C339-C338)^2+(D339- D338)^2)^.5</f>
       </c>
-      <c r="J339" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K339" s="4" t="s">
+      <c r="J339" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K339" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L339" t="n">
@@ -9971,28 +10019,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="s" s="4">
+      <c r="A341" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B341" t="s" s="4">
+      <c r="B341" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C341" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D341" t="s" s="4">
+      <c r="C341" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D341" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E341" t="s" s="4">
+      <c r="E341" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F341" t="s" s="4">
+      <c r="F341" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G341" t="s" s="4">
+      <c r="G341" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H341" t="s" s="4">
+      <c r="H341" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10017,28 +10065,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="B343" t="s" s="4">
+      <c r="B343" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C343" t="s" s="4">
+      <c r="C343" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D343" t="s" s="4">
+      <c r="D343" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E343" t="s" s="4">
+      <c r="E343" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F343" t="s" s="4">
+      <c r="F343" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G343" t="s" s="4">
+      <c r="G343" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H343" t="s" s="4">
+      <c r="H343" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I343" t="s" s="4">
+      <c r="I343" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10097,10 +10145,10 @@
       <c r="I345">
         <f>((C345-C344)^2+(D345- D344)^2)^.5</f>
       </c>
-      <c r="J345" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K345" s="4" t="s">
+      <c r="J345" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K345" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L345" t="n">
@@ -10144,28 +10192,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="s" s="4">
+      <c r="A347" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B347" t="s" s="4">
+      <c r="B347" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C347" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D347" t="s" s="4">
+      <c r="C347" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D347" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E347" t="s" s="4">
+      <c r="E347" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F347" t="s" s="4">
+      <c r="F347" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G347" t="s" s="4">
+      <c r="G347" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H347" t="s" s="4">
+      <c r="H347" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10190,28 +10238,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="B349" t="s" s="4">
+      <c r="B349" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C349" t="s" s="4">
+      <c r="C349" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D349" t="s" s="4">
+      <c r="D349" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E349" t="s" s="4">
+      <c r="E349" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F349" t="s" s="4">
+      <c r="F349" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G349" t="s" s="4">
+      <c r="G349" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H349" t="s" s="4">
+      <c r="H349" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I349" t="s" s="4">
+      <c r="I349" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10270,10 +10318,10 @@
       <c r="I351">
         <f>((C351-C350)^2+(D351- D350)^2)^.5</f>
       </c>
-      <c r="J351" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K351" s="4" t="s">
+      <c r="J351" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K351" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L351" t="n">
@@ -10317,28 +10365,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="s" s="4">
+      <c r="A353" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B353" t="s" s="4">
+      <c r="B353" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C353" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D353" t="s" s="4">
+      <c r="C353" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D353" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E353" t="s" s="4">
+      <c r="E353" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F353" t="s" s="4">
+      <c r="F353" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G353" t="s" s="4">
+      <c r="G353" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H353" t="s" s="4">
+      <c r="H353" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10363,28 +10411,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="B355" t="s" s="4">
+      <c r="B355" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C355" t="s" s="4">
+      <c r="C355" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D355" t="s" s="4">
+      <c r="D355" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E355" t="s" s="4">
+      <c r="E355" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F355" t="s" s="4">
+      <c r="F355" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G355" t="s" s="4">
+      <c r="G355" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H355" t="s" s="4">
+      <c r="H355" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I355" t="s" s="4">
+      <c r="I355" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10472,10 +10520,10 @@
       <c r="I358">
         <f>((C358-C357)^2+(D358- D357)^2)^.5</f>
       </c>
-      <c r="J358" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K358" s="4" t="s">
+      <c r="J358" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K358" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L358" t="n">
@@ -10519,28 +10567,28 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="s" s="4">
+      <c r="A360" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B360" t="s" s="4">
+      <c r="B360" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C360" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D360" t="s" s="4">
+      <c r="C360" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D360" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E360" t="s" s="4">
+      <c r="E360" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F360" t="s" s="4">
+      <c r="F360" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G360" t="s" s="4">
+      <c r="G360" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H360" t="s" s="4">
+      <c r="H360" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10565,28 +10613,28 @@
       </c>
     </row>
     <row r="362">
-      <c r="B362" t="s" s="4">
+      <c r="B362" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C362" t="s" s="4">
+      <c r="C362" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D362" t="s" s="4">
+      <c r="D362" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E362" t="s" s="4">
+      <c r="E362" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F362" t="s" s="4">
+      <c r="F362" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G362" t="s" s="4">
+      <c r="G362" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H362" t="s" s="4">
+      <c r="H362" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I362" t="s" s="4">
+      <c r="I362" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10645,10 +10693,10 @@
       <c r="I364">
         <f>((C364-C363)^2+(D364- D363)^2)^.5</f>
       </c>
-      <c r="J364" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K364" s="4" t="s">
+      <c r="J364" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K364" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L364" t="n">
@@ -10692,28 +10740,28 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="s" s="4">
+      <c r="A366" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B366" t="s" s="4">
+      <c r="B366" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C366" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D366" t="s" s="4">
+      <c r="C366" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D366" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E366" t="s" s="4">
+      <c r="E366" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F366" t="s" s="4">
+      <c r="F366" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G366" t="s" s="4">
+      <c r="G366" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H366" t="s" s="4">
+      <c r="H366" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10738,28 +10786,28 @@
       </c>
     </row>
     <row r="368">
-      <c r="B368" t="s" s="4">
+      <c r="B368" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C368" t="s" s="4">
+      <c r="C368" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D368" t="s" s="4">
+      <c r="D368" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E368" t="s" s="4">
+      <c r="E368" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F368" t="s" s="4">
+      <c r="F368" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G368" t="s" s="4">
+      <c r="G368" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H368" t="s" s="4">
+      <c r="H368" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I368" t="s" s="4">
+      <c r="I368" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10818,10 +10866,10 @@
       <c r="I370">
         <f>((C370-C369)^2+(D370- D369)^2)^.5</f>
       </c>
-      <c r="J370" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K370" s="4" t="s">
+      <c r="J370" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K370" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L370" t="n">
@@ -10865,28 +10913,28 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="s" s="4">
+      <c r="A372" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B372" t="s" s="4">
+      <c r="B372" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C372" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D372" t="s" s="4">
+      <c r="C372" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D372" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E372" t="s" s="4">
+      <c r="E372" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F372" t="s" s="4">
+      <c r="F372" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G372" t="s" s="4">
+      <c r="G372" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H372" t="s" s="4">
+      <c r="H372" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10911,28 +10959,28 @@
       </c>
     </row>
     <row r="374">
-      <c r="B374" t="s" s="4">
+      <c r="B374" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C374" t="s" s="4">
+      <c r="C374" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D374" t="s" s="4">
+      <c r="D374" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E374" t="s" s="4">
+      <c r="E374" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F374" t="s" s="4">
+      <c r="F374" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G374" t="s" s="4">
+      <c r="G374" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H374" t="s" s="4">
+      <c r="H374" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I374" t="s" s="4">
+      <c r="I374" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10991,10 +11039,10 @@
       <c r="I376">
         <f>((C376-C375)^2+(D376- D375)^2)^.5</f>
       </c>
-      <c r="J376" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K376" s="4" t="s">
+      <c r="J376" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K376" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L376" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12072" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15090" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -392,10 +410,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="12" t="s">
+      <c r="J7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -439,28 +457,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="12">
+      <c r="A9" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="12">
+      <c r="B9" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="12">
+      <c r="C9" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="12">
+      <c r="E9" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="12">
+      <c r="F9" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="12">
+      <c r="G9" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="12">
+      <c r="H9" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -485,28 +503,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="12">
+      <c r="B11" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="12">
+      <c r="C11" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="12">
+      <c r="D11" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="12">
+      <c r="E11" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="12">
+      <c r="F11" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="12">
+      <c r="G11" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="12">
+      <c r="H11" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="12">
+      <c r="I11" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -768,10 +786,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="12" t="s">
+      <c r="J20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -815,28 +833,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="12">
+      <c r="A22" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="12">
+      <c r="B22" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s" s="12">
+      <c r="C22" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="12">
+      <c r="E22" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="12">
+      <c r="F22" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="12">
+      <c r="G22" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="12">
+      <c r="H22" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -861,28 +879,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="12">
+      <c r="B24" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="12">
+      <c r="C24" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="12">
+      <c r="D24" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="12">
+      <c r="E24" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="12">
+      <c r="F24" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="12">
+      <c r="G24" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="12">
+      <c r="H24" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="12">
+      <c r="I24" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -970,10 +988,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="12" t="s">
+      <c r="J27" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -1017,28 +1035,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="12">
+      <c r="A29" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="12">
+      <c r="B29" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="12">
+      <c r="C29" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="12">
+      <c r="E29" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="12">
+      <c r="F29" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="12">
+      <c r="G29" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="12">
+      <c r="H29" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1063,28 +1081,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="12">
+      <c r="B31" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="12">
+      <c r="C31" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="12">
+      <c r="D31" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="12">
+      <c r="E31" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="12">
+      <c r="F31" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="12">
+      <c r="G31" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="12">
+      <c r="H31" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="12">
+      <c r="I31" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1143,10 +1161,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="12" t="s">
+      <c r="J33" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1190,28 +1208,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="12">
+      <c r="A35" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="12">
+      <c r="B35" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="12">
+      <c r="C35" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="12">
+      <c r="E35" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="12">
+      <c r="F35" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="12">
+      <c r="G35" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="12">
+      <c r="H35" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1236,28 +1254,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="12">
+      <c r="B37" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="12">
+      <c r="C37" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="12">
+      <c r="D37" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="12">
+      <c r="E37" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="12">
+      <c r="F37" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="12">
+      <c r="G37" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="12">
+      <c r="H37" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="12">
+      <c r="I37" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1316,10 +1334,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="12" t="s">
+      <c r="J39" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1363,28 +1381,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="12">
+      <c r="A41" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="12">
+      <c r="B41" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="12">
+      <c r="C41" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="12">
+      <c r="E41" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="12">
+      <c r="F41" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="12">
+      <c r="G41" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="12">
+      <c r="H41" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1409,28 +1427,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="12">
+      <c r="B43" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="12">
+      <c r="C43" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="12">
+      <c r="D43" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="12">
+      <c r="E43" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="12">
+      <c r="F43" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="12">
+      <c r="G43" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="12">
+      <c r="H43" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="12">
+      <c r="I43" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1489,10 +1507,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="12" t="s">
+      <c r="J45" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1536,28 +1554,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="12">
+      <c r="A47" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="12">
+      <c r="B47" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="12">
+      <c r="C47" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="12">
+      <c r="E47" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="12">
+      <c r="F47" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="12">
+      <c r="G47" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="12">
+      <c r="H47" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1582,28 +1600,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="12">
+      <c r="B49" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="12">
+      <c r="C49" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="12">
+      <c r="D49" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="12">
+      <c r="E49" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="12">
+      <c r="F49" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="12">
+      <c r="G49" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="12">
+      <c r="H49" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="12">
+      <c r="I49" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1691,10 +1709,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="12" t="s">
+      <c r="J52" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1738,28 +1756,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="12">
+      <c r="A54" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="12">
+      <c r="B54" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="12">
+      <c r="C54" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="12">
+      <c r="E54" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="12">
+      <c r="F54" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="12">
+      <c r="G54" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="12">
+      <c r="H54" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1784,28 +1802,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="12">
+      <c r="B56" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="12">
+      <c r="C56" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="12">
+      <c r="D56" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="12">
+      <c r="E56" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="12">
+      <c r="F56" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="12">
+      <c r="G56" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="12">
+      <c r="H56" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="12">
+      <c r="I56" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1864,10 +1882,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="12" t="s">
+      <c r="J58" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1911,28 +1929,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="12">
+      <c r="A60" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="12">
+      <c r="B60" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="12">
+      <c r="C60" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="12">
+      <c r="E60" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="12">
+      <c r="F60" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="12">
+      <c r="G60" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="12">
+      <c r="H60" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1957,28 +1975,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="12">
+      <c r="B62" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="12">
+      <c r="C62" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="12">
+      <c r="D62" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="12">
+      <c r="E62" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="12">
+      <c r="F62" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="12">
+      <c r="G62" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="12">
+      <c r="H62" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="12">
+      <c r="I62" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2037,10 +2055,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="12" t="s">
+      <c r="J64" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2084,28 +2102,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="12">
+      <c r="A66" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="12">
+      <c r="B66" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="12">
+      <c r="C66" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="12">
+      <c r="E66" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="12">
+      <c r="F66" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="12">
+      <c r="G66" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="12">
+      <c r="H66" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2130,28 +2148,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="12">
+      <c r="B68" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="12">
+      <c r="C68" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="12">
+      <c r="D68" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="12">
+      <c r="E68" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="12">
+      <c r="F68" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="12">
+      <c r="G68" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="12">
+      <c r="H68" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="12">
+      <c r="I68" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2210,10 +2228,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="12" t="s">
+      <c r="J70" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2257,28 +2275,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="12">
+      <c r="A72" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="12">
+      <c r="B72" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="12">
+      <c r="C72" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="12">
+      <c r="E72" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="12">
+      <c r="F72" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="12">
+      <c r="G72" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="12">
+      <c r="H72" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2303,28 +2321,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="12">
+      <c r="B74" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="12">
+      <c r="C74" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="12">
+      <c r="D74" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="12">
+      <c r="E74" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="12">
+      <c r="F74" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="12">
+      <c r="G74" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="12">
+      <c r="H74" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="12">
+      <c r="I74" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2383,10 +2401,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="12" t="s">
+      <c r="J76" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2430,28 +2448,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="12">
+      <c r="A78" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="12">
+      <c r="B78" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s" s="12">
+      <c r="C78" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="12">
+      <c r="E78" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="12">
+      <c r="F78" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="12">
+      <c r="G78" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="12">
+      <c r="H78" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2476,28 +2494,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="12">
+      <c r="B80" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="12">
+      <c r="C80" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="12">
+      <c r="D80" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="12">
+      <c r="E80" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="12">
+      <c r="F80" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="12">
+      <c r="G80" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="12">
+      <c r="H80" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="12">
+      <c r="I80" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2556,10 +2574,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="12" t="s">
+      <c r="J82" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2603,28 +2621,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="12">
+      <c r="A84" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="12">
+      <c r="B84" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="12">
+      <c r="C84" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="12">
+      <c r="E84" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="12">
+      <c r="F84" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="12">
+      <c r="G84" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="12">
+      <c r="H84" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2649,28 +2667,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="12">
+      <c r="B86" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="12">
+      <c r="C86" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="12">
+      <c r="D86" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="12">
+      <c r="E86" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="12">
+      <c r="F86" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="12">
+      <c r="G86" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="12">
+      <c r="H86" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="12">
+      <c r="I86" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2729,10 +2747,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="12" t="s">
+      <c r="J88" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2776,28 +2794,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="12">
+      <c r="A90" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="12">
+      <c r="B90" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="12">
+      <c r="C90" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="12">
+      <c r="E90" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="12">
+      <c r="F90" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="12">
+      <c r="G90" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="12">
+      <c r="H90" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2822,28 +2840,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="12">
+      <c r="B92" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="12">
+      <c r="C92" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="12">
+      <c r="D92" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="12">
+      <c r="E92" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="12">
+      <c r="F92" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="12">
+      <c r="G92" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="12">
+      <c r="H92" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="12">
+      <c r="I92" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2902,10 +2920,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="12" t="s">
+      <c r="J94" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2949,28 +2967,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="12">
+      <c r="A96" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="12">
+      <c r="B96" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="12">
+      <c r="C96" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="12">
+      <c r="E96" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="12">
+      <c r="F96" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="12">
+      <c r="G96" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="12">
+      <c r="H96" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2995,28 +3013,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="12">
+      <c r="B98" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="12">
+      <c r="C98" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="12">
+      <c r="D98" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="12">
+      <c r="E98" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="12">
+      <c r="F98" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="12">
+      <c r="G98" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="12">
+      <c r="H98" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="12">
+      <c r="I98" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3336,10 +3354,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="12" t="s">
+      <c r="J109" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3383,28 +3401,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="12">
+      <c r="A111" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="12">
+      <c r="B111" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="12">
+      <c r="C111" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="12">
+      <c r="E111" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="12">
+      <c r="F111" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="12">
+      <c r="G111" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="12">
+      <c r="H111" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3429,28 +3447,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="12">
+      <c r="B113" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="12">
+      <c r="C113" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="12">
+      <c r="D113" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="12">
+      <c r="E113" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="12">
+      <c r="F113" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="12">
+      <c r="G113" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="12">
+      <c r="H113" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="12">
+      <c r="I113" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3509,10 +3527,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="12" t="s">
+      <c r="J115" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3556,28 +3574,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="12">
+      <c r="A117" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="12">
+      <c r="B117" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="12">
+      <c r="C117" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="12">
+      <c r="E117" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="12">
+      <c r="F117" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="12">
+      <c r="G117" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="12">
+      <c r="H117" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3602,28 +3620,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="12">
+      <c r="B119" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="12">
+      <c r="C119" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="12">
+      <c r="D119" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="12">
+      <c r="E119" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="12">
+      <c r="F119" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="12">
+      <c r="G119" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="12">
+      <c r="H119" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="12">
+      <c r="I119" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3682,10 +3700,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="12" t="s">
+      <c r="J121" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3729,28 +3747,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="12">
+      <c r="A123" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="12">
+      <c r="B123" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="12">
+      <c r="C123" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="12">
+      <c r="E123" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="12">
+      <c r="F123" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="12">
+      <c r="G123" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="12">
+      <c r="H123" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3775,28 +3793,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="12">
+      <c r="B125" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="12">
+      <c r="C125" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="12">
+      <c r="D125" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="12">
+      <c r="E125" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="12">
+      <c r="F125" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="12">
+      <c r="G125" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="12">
+      <c r="H125" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="12">
+      <c r="I125" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3855,10 +3873,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="12" t="s">
+      <c r="J127" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3902,28 +3920,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="12">
+      <c r="A129" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="12">
+      <c r="B129" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="12">
+      <c r="C129" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="12">
+      <c r="E129" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="12">
+      <c r="F129" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="12">
+      <c r="G129" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="12">
+      <c r="H129" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3948,28 +3966,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="12">
+      <c r="B131" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="12">
+      <c r="C131" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="12">
+      <c r="D131" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="12">
+      <c r="E131" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="12">
+      <c r="F131" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="12">
+      <c r="G131" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="12">
+      <c r="H131" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="12">
+      <c r="I131" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4028,10 +4046,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="12" t="s">
+      <c r="J133" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4075,28 +4093,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="12">
+      <c r="A135" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="12">
+      <c r="B135" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="12">
+      <c r="C135" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="12">
+      <c r="E135" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="12">
+      <c r="F135" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="12">
+      <c r="G135" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="12">
+      <c r="H135" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4121,28 +4139,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="12">
+      <c r="B137" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="12">
+      <c r="C137" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="12">
+      <c r="D137" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="12">
+      <c r="E137" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="12">
+      <c r="F137" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="12">
+      <c r="G137" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="12">
+      <c r="H137" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="12">
+      <c r="I137" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4230,10 +4248,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="12" t="s">
+      <c r="J140" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4277,28 +4295,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="12">
+      <c r="A142" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="12">
+      <c r="B142" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="12">
+      <c r="C142" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="12">
+      <c r="E142" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="12">
+      <c r="F142" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="12">
+      <c r="G142" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="12">
+      <c r="H142" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4323,28 +4341,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="12">
+      <c r="B144" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="12">
+      <c r="C144" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="12">
+      <c r="D144" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="12">
+      <c r="E144" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="12">
+      <c r="F144" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="12">
+      <c r="G144" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="12">
+      <c r="H144" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="12">
+      <c r="I144" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4403,10 +4421,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="12" t="s">
+      <c r="J146" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4450,28 +4468,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="12">
+      <c r="A148" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="12">
+      <c r="B148" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="12">
+      <c r="C148" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="12">
+      <c r="E148" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="12">
+      <c r="F148" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="12">
+      <c r="G148" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="12">
+      <c r="H148" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4496,28 +4514,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="12">
+      <c r="B150" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="12">
+      <c r="C150" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="12">
+      <c r="D150" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="12">
+      <c r="E150" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="12">
+      <c r="F150" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="12">
+      <c r="G150" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="12">
+      <c r="H150" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="12">
+      <c r="I150" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4605,10 +4623,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="12" t="s">
+      <c r="J153" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4652,28 +4670,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="12">
+      <c r="A155" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="12">
+      <c r="B155" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="12">
+      <c r="C155" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="12">
+      <c r="E155" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="12">
+      <c r="F155" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="12">
+      <c r="G155" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="12">
+      <c r="H155" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4698,28 +4716,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="12">
+      <c r="B157" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="12">
+      <c r="C157" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="12">
+      <c r="D157" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="12">
+      <c r="E157" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="12">
+      <c r="F157" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="12">
+      <c r="G157" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="12">
+      <c r="H157" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="12">
+      <c r="I157" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4807,10 +4825,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="12" t="s">
+      <c r="J160" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4854,28 +4872,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="12">
+      <c r="A162" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="12">
+      <c r="B162" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="12">
+      <c r="C162" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="12">
+      <c r="E162" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="12">
+      <c r="F162" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="12">
+      <c r="G162" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="12">
+      <c r="H162" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4900,28 +4918,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="12">
+      <c r="B164" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="12">
+      <c r="C164" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="12">
+      <c r="D164" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="12">
+      <c r="E164" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="12">
+      <c r="F164" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="12">
+      <c r="G164" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="12">
+      <c r="H164" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="12">
+      <c r="I164" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5270,10 +5288,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="12" t="s">
+      <c r="J176" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5317,28 +5335,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="12">
+      <c r="A178" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="12">
+      <c r="B178" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="12">
+      <c r="C178" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="12">
+      <c r="E178" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="12">
+      <c r="F178" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="12">
+      <c r="G178" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="12">
+      <c r="H178" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5363,28 +5381,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="12">
+      <c r="B180" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="12">
+      <c r="C180" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="12">
+      <c r="D180" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="12">
+      <c r="E180" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="12">
+      <c r="F180" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="12">
+      <c r="G180" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="12">
+      <c r="H180" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="12">
+      <c r="I180" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5443,10 +5461,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="12" t="s">
+      <c r="J182" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5490,28 +5508,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="12">
+      <c r="A184" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="12">
+      <c r="B184" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="12">
+      <c r="C184" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="12">
+      <c r="E184" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="12">
+      <c r="F184" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="12">
+      <c r="G184" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="12">
+      <c r="H184" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5536,28 +5554,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="12">
+      <c r="B186" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="12">
+      <c r="C186" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="12">
+      <c r="D186" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="12">
+      <c r="E186" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="12">
+      <c r="F186" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="12">
+      <c r="G186" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="12">
+      <c r="H186" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="12">
+      <c r="I186" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5616,10 +5634,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="12" t="s">
+      <c r="J188" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5663,28 +5681,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="12">
+      <c r="A190" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="12">
+      <c r="B190" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="12">
+      <c r="C190" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="12">
+      <c r="E190" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="12">
+      <c r="F190" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="12">
+      <c r="G190" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="12">
+      <c r="H190" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5709,28 +5727,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="12">
+      <c r="B192" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="12">
+      <c r="C192" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="12">
+      <c r="D192" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="12">
+      <c r="E192" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="12">
+      <c r="F192" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="12">
+      <c r="G192" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="12">
+      <c r="H192" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="12">
+      <c r="I192" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5789,10 +5807,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="12" t="s">
+      <c r="J194" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5836,28 +5854,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="12">
+      <c r="A196" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="12">
+      <c r="B196" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="12">
+      <c r="C196" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="12">
+      <c r="E196" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="12">
+      <c r="F196" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="12">
+      <c r="G196" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="12">
+      <c r="H196" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5882,28 +5900,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="12">
+      <c r="B198" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="12">
+      <c r="C198" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="12">
+      <c r="D198" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="12">
+      <c r="E198" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="12">
+      <c r="F198" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="12">
+      <c r="G198" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="12">
+      <c r="H198" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="12">
+      <c r="I198" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5991,10 +6009,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="12" t="s">
+      <c r="J201" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -6038,28 +6056,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="12">
+      <c r="A203" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="12">
+      <c r="B203" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="12">
+      <c r="C203" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="12">
+      <c r="E203" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="12">
+      <c r="F203" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="12">
+      <c r="G203" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="12">
+      <c r="H203" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6084,28 +6102,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="12">
+      <c r="B205" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="12">
+      <c r="C205" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="12">
+      <c r="D205" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="12">
+      <c r="E205" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="12">
+      <c r="F205" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="12">
+      <c r="G205" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="12">
+      <c r="H205" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="12">
+      <c r="I205" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6164,10 +6182,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="12" t="s">
+      <c r="J207" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6211,28 +6229,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="12">
+      <c r="A209" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="12">
+      <c r="B209" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="12">
+      <c r="C209" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="12">
+      <c r="E209" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="12">
+      <c r="F209" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="12">
+      <c r="G209" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="12">
+      <c r="H209" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6257,28 +6275,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="12">
+      <c r="B211" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="12">
+      <c r="C211" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="12">
+      <c r="D211" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="12">
+      <c r="E211" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="12">
+      <c r="F211" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="12">
+      <c r="G211" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="12">
+      <c r="H211" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="12">
+      <c r="I211" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6337,10 +6355,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="12" t="s">
+      <c r="J213" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6384,28 +6402,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="12">
+      <c r="A215" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="12">
+      <c r="B215" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="12">
+      <c r="C215" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="12">
+      <c r="E215" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="12">
+      <c r="F215" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="12">
+      <c r="G215" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="12">
+      <c r="H215" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6430,28 +6448,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="12">
+      <c r="B217" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="12">
+      <c r="C217" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="12">
+      <c r="D217" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="12">
+      <c r="E217" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="12">
+      <c r="F217" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="12">
+      <c r="G217" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="12">
+      <c r="H217" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="12">
+      <c r="I217" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6510,10 +6528,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="12" t="s">
+      <c r="J219" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6557,28 +6575,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="12">
+      <c r="A221" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="12">
+      <c r="B221" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="12">
+      <c r="C221" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="12">
+      <c r="E221" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="12">
+      <c r="F221" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="12">
+      <c r="G221" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="12">
+      <c r="H221" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6603,28 +6621,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="12">
+      <c r="B223" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="12">
+      <c r="C223" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="12">
+      <c r="D223" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="12">
+      <c r="E223" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="12">
+      <c r="F223" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="12">
+      <c r="G223" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="12">
+      <c r="H223" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="12">
+      <c r="I223" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6683,10 +6701,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="12" t="s">
+      <c r="J225" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6730,28 +6748,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="12">
+      <c r="A227" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="12">
+      <c r="B227" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="12">
+      <c r="C227" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="12">
+      <c r="E227" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="12">
+      <c r="F227" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="12">
+      <c r="G227" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="12">
+      <c r="H227" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6776,28 +6794,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="12">
+      <c r="B229" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="12">
+      <c r="C229" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="12">
+      <c r="D229" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="12">
+      <c r="E229" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="12">
+      <c r="F229" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="12">
+      <c r="G229" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="12">
+      <c r="H229" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="12">
+      <c r="I229" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6856,10 +6874,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="12" t="s">
+      <c r="J231" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6903,28 +6921,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="12">
+      <c r="A233" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="12">
+      <c r="B233" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="12">
+      <c r="C233" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="12">
+      <c r="E233" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="12">
+      <c r="F233" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="12">
+      <c r="G233" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="12">
+      <c r="H233" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6949,28 +6967,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="12">
+      <c r="B235" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="12">
+      <c r="C235" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="12">
+      <c r="D235" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="12">
+      <c r="E235" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="12">
+      <c r="F235" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="12">
+      <c r="G235" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="12">
+      <c r="H235" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="12">
+      <c r="I235" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7029,10 +7047,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="12" t="s">
+      <c r="J237" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7076,28 +7094,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="12">
+      <c r="A239" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="12">
+      <c r="B239" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="12">
+      <c r="C239" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="12">
+      <c r="E239" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="12">
+      <c r="F239" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="12">
+      <c r="G239" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="12">
+      <c r="H239" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7122,28 +7140,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="12">
+      <c r="B241" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="12">
+      <c r="C241" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="12">
+      <c r="D241" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="12">
+      <c r="E241" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="12">
+      <c r="F241" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="12">
+      <c r="G241" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="12">
+      <c r="H241" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="12">
+      <c r="I241" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7521,10 +7539,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="12" t="s">
+      <c r="J254" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7568,28 +7586,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="12">
+      <c r="A256" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="12">
+      <c r="B256" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="12">
+      <c r="C256" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="12">
+      <c r="E256" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="12">
+      <c r="F256" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="12">
+      <c r="G256" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="12">
+      <c r="H256" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7614,28 +7632,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="12">
+      <c r="B258" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="12">
+      <c r="C258" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="12">
+      <c r="D258" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="12">
+      <c r="E258" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="12">
+      <c r="F258" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="12">
+      <c r="G258" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="12">
+      <c r="H258" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="12">
+      <c r="I258" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7694,10 +7712,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="12" t="s">
+      <c r="J260" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7741,28 +7759,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="12">
+      <c r="A262" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="12">
+      <c r="B262" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="12">
+      <c r="C262" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="12">
+      <c r="E262" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="12">
+      <c r="F262" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="12">
+      <c r="G262" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="12">
+      <c r="H262" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7787,28 +7805,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="12">
+      <c r="B264" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="12">
+      <c r="C264" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="12">
+      <c r="D264" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="12">
+      <c r="E264" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="12">
+      <c r="F264" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="12">
+      <c r="G264" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="12">
+      <c r="H264" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="12">
+      <c r="I264" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7867,10 +7885,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="12" t="s">
+      <c r="J266" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7914,28 +7932,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="12">
+      <c r="A268" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="12">
+      <c r="B268" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="12">
+      <c r="C268" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="12">
+      <c r="E268" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="12">
+      <c r="F268" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="12">
+      <c r="G268" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="12">
+      <c r="H268" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7960,28 +7978,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="12">
+      <c r="B270" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="12">
+      <c r="C270" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="12">
+      <c r="D270" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="12">
+      <c r="E270" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="12">
+      <c r="F270" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="12">
+      <c r="G270" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="12">
+      <c r="H270" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="12">
+      <c r="I270" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8040,10 +8058,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="12" t="s">
+      <c r="J272" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8087,28 +8105,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="12">
+      <c r="A274" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="12">
+      <c r="B274" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="12">
+      <c r="C274" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="12">
+      <c r="E274" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="12">
+      <c r="F274" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="12">
+      <c r="G274" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="12">
+      <c r="H274" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8133,28 +8151,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="12">
+      <c r="B276" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="12">
+      <c r="C276" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="12">
+      <c r="D276" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="12">
+      <c r="E276" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="12">
+      <c r="F276" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="12">
+      <c r="G276" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="12">
+      <c r="H276" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="12">
+      <c r="I276" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8242,10 +8260,10 @@
       <c r="I279">
         <f>((C279-C278)^2+(D279- D278)^2)^.5</f>
       </c>
-      <c r="J279" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K279" s="12" t="s">
+      <c r="J279" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K279" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L279" t="n">
@@ -8289,28 +8307,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s" s="12">
+      <c r="A281" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B281" t="s" s="12">
+      <c r="B281" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C281" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D281" t="s" s="12">
+      <c r="C281" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D281" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E281" t="s" s="12">
+      <c r="E281" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F281" t="s" s="12">
+      <c r="F281" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G281" t="s" s="12">
+      <c r="G281" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H281" t="s" s="12">
+      <c r="H281" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8335,28 +8353,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="B283" t="s" s="12">
+      <c r="B283" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C283" t="s" s="12">
+      <c r="C283" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D283" t="s" s="12">
+      <c r="D283" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E283" t="s" s="12">
+      <c r="E283" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F283" t="s" s="12">
+      <c r="F283" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G283" t="s" s="12">
+      <c r="G283" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H283" t="s" s="12">
+      <c r="H283" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I283" t="s" s="12">
+      <c r="I283" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8415,10 +8433,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="12" t="s">
+      <c r="J285" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8462,28 +8480,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="12">
+      <c r="A287" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="12">
+      <c r="B287" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="12">
+      <c r="C287" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="12">
+      <c r="E287" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="12">
+      <c r="F287" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="12">
+      <c r="G287" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="12">
+      <c r="H287" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8508,28 +8526,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="12">
+      <c r="B289" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="12">
+      <c r="C289" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="12">
+      <c r="D289" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="12">
+      <c r="E289" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="12">
+      <c r="F289" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="12">
+      <c r="G289" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="12">
+      <c r="H289" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="12">
+      <c r="I289" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8588,10 +8606,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="12" t="s">
+      <c r="J291" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8635,28 +8653,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="12">
+      <c r="A293" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="12">
+      <c r="B293" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="12">
+      <c r="C293" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="12">
+      <c r="E293" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="12">
+      <c r="F293" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="12">
+      <c r="G293" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="12">
+      <c r="H293" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8681,28 +8699,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="12">
+      <c r="B295" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="12">
+      <c r="C295" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="12">
+      <c r="D295" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="12">
+      <c r="E295" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="12">
+      <c r="F295" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="12">
+      <c r="G295" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="12">
+      <c r="H295" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="12">
+      <c r="I295" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8761,10 +8779,10 @@
       <c r="I297">
         <f>((C297-C296)^2+(D297- D296)^2)^.5</f>
       </c>
-      <c r="J297" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K297" s="12" t="s">
+      <c r="J297" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K297" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L297" t="n">
@@ -8808,28 +8826,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="12">
+      <c r="A299" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B299" t="s" s="12">
+      <c r="B299" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C299" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D299" t="s" s="12">
+      <c r="C299" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E299" t="s" s="12">
+      <c r="E299" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F299" t="s" s="12">
+      <c r="F299" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G299" t="s" s="12">
+      <c r="G299" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H299" t="s" s="12">
+      <c r="H299" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8854,28 +8872,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="12">
+      <c r="B301" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C301" t="s" s="12">
+      <c r="C301" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D301" t="s" s="12">
+      <c r="D301" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E301" t="s" s="12">
+      <c r="E301" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F301" t="s" s="12">
+      <c r="F301" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G301" t="s" s="12">
+      <c r="G301" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H301" t="s" s="12">
+      <c r="H301" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I301" t="s" s="12">
+      <c r="I301" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8934,10 +8952,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="12" t="s">
+      <c r="J303" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8981,28 +8999,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="12">
+      <c r="A305" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="12">
+      <c r="B305" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="12">
+      <c r="C305" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="12">
+      <c r="E305" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="12">
+      <c r="F305" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="12">
+      <c r="G305" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="12">
+      <c r="H305" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9027,28 +9045,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="12">
+      <c r="B307" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="12">
+      <c r="C307" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="12">
+      <c r="D307" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="12">
+      <c r="E307" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="12">
+      <c r="F307" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="12">
+      <c r="G307" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="12">
+      <c r="H307" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="12">
+      <c r="I307" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9107,10 +9125,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="12" t="s">
+      <c r="J309" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9154,28 +9172,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="12">
+      <c r="A311" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="12">
+      <c r="B311" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="12">
+      <c r="C311" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="12">
+      <c r="E311" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="12">
+      <c r="F311" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="12">
+      <c r="G311" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="12">
+      <c r="H311" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9200,28 +9218,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="12">
+      <c r="B313" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="12">
+      <c r="C313" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="12">
+      <c r="D313" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="12">
+      <c r="E313" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="12">
+      <c r="F313" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="12">
+      <c r="G313" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="12">
+      <c r="H313" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="12">
+      <c r="I313" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9280,10 +9298,10 @@
       <c r="I315">
         <f>((C315-C314)^2+(D315- D314)^2)^.5</f>
       </c>
-      <c r="J315" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K315" s="12" t="s">
+      <c r="J315" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K315" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L315" t="n">
@@ -9327,28 +9345,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="s" s="12">
+      <c r="A317" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B317" t="s" s="12">
+      <c r="B317" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C317" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D317" t="s" s="12">
+      <c r="C317" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D317" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E317" t="s" s="12">
+      <c r="E317" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F317" t="s" s="12">
+      <c r="F317" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G317" t="s" s="12">
+      <c r="G317" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H317" t="s" s="12">
+      <c r="H317" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9373,28 +9391,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="B319" t="s" s="12">
+      <c r="B319" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C319" t="s" s="12">
+      <c r="C319" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D319" t="s" s="12">
+      <c r="D319" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E319" t="s" s="12">
+      <c r="E319" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F319" t="s" s="12">
+      <c r="F319" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G319" t="s" s="12">
+      <c r="G319" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H319" t="s" s="12">
+      <c r="H319" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I319" t="s" s="12">
+      <c r="I319" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9453,10 +9471,10 @@
       <c r="I321">
         <f>((C321-C320)^2+(D321- D320)^2)^.5</f>
       </c>
-      <c r="J321" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K321" s="12" t="s">
+      <c r="J321" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K321" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L321" t="n">
@@ -9500,28 +9518,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="s" s="12">
+      <c r="A323" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B323" t="s" s="12">
+      <c r="B323" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C323" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D323" t="s" s="12">
+      <c r="C323" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D323" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E323" t="s" s="12">
+      <c r="E323" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F323" t="s" s="12">
+      <c r="F323" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G323" t="s" s="12">
+      <c r="G323" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H323" t="s" s="12">
+      <c r="H323" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9546,28 +9564,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="B325" t="s" s="12">
+      <c r="B325" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C325" t="s" s="12">
+      <c r="C325" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D325" t="s" s="12">
+      <c r="D325" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E325" t="s" s="12">
+      <c r="E325" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F325" t="s" s="12">
+      <c r="F325" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G325" t="s" s="12">
+      <c r="G325" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H325" t="s" s="12">
+      <c r="H325" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I325" t="s" s="12">
+      <c r="I325" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9626,10 +9644,10 @@
       <c r="I327">
         <f>((C327-C326)^2+(D327- D326)^2)^.5</f>
       </c>
-      <c r="J327" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K327" s="12" t="s">
+      <c r="J327" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K327" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L327" t="n">
@@ -9673,28 +9691,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="s" s="12">
+      <c r="A329" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B329" t="s" s="12">
+      <c r="B329" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C329" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D329" t="s" s="12">
+      <c r="C329" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D329" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E329" t="s" s="12">
+      <c r="E329" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F329" t="s" s="12">
+      <c r="F329" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G329" t="s" s="12">
+      <c r="G329" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H329" t="s" s="12">
+      <c r="H329" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9719,28 +9737,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="B331" t="s" s="12">
+      <c r="B331" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C331" t="s" s="12">
+      <c r="C331" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D331" t="s" s="12">
+      <c r="D331" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E331" t="s" s="12">
+      <c r="E331" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F331" t="s" s="12">
+      <c r="F331" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G331" t="s" s="12">
+      <c r="G331" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H331" t="s" s="12">
+      <c r="H331" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I331" t="s" s="12">
+      <c r="I331" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9799,10 +9817,10 @@
       <c r="I333">
         <f>((C333-C332)^2+(D333- D332)^2)^.5</f>
       </c>
-      <c r="J333" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K333" s="12" t="s">
+      <c r="J333" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K333" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L333" t="n">
@@ -9846,28 +9864,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="s" s="12">
+      <c r="A335" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B335" t="s" s="12">
+      <c r="B335" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C335" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D335" t="s" s="12">
+      <c r="C335" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D335" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E335" t="s" s="12">
+      <c r="E335" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F335" t="s" s="12">
+      <c r="F335" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G335" t="s" s="12">
+      <c r="G335" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H335" t="s" s="12">
+      <c r="H335" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9892,28 +9910,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="B337" t="s" s="12">
+      <c r="B337" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C337" t="s" s="12">
+      <c r="C337" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D337" t="s" s="12">
+      <c r="D337" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E337" t="s" s="12">
+      <c r="E337" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F337" t="s" s="12">
+      <c r="F337" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G337" t="s" s="12">
+      <c r="G337" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H337" t="s" s="12">
+      <c r="H337" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I337" t="s" s="12">
+      <c r="I337" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9972,10 +9990,10 @@
       <c r="I339">
         <f>((C339-C338)^2+(D339- D338)^2)^.5</f>
       </c>
-      <c r="J339" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K339" s="12" t="s">
+      <c r="J339" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K339" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L339" t="n">
@@ -10019,28 +10037,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="s" s="12">
+      <c r="A341" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B341" t="s" s="12">
+      <c r="B341" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C341" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D341" t="s" s="12">
+      <c r="C341" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D341" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E341" t="s" s="12">
+      <c r="E341" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F341" t="s" s="12">
+      <c r="F341" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G341" t="s" s="12">
+      <c r="G341" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H341" t="s" s="12">
+      <c r="H341" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10065,28 +10083,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="B343" t="s" s="12">
+      <c r="B343" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C343" t="s" s="12">
+      <c r="C343" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D343" t="s" s="12">
+      <c r="D343" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E343" t="s" s="12">
+      <c r="E343" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F343" t="s" s="12">
+      <c r="F343" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G343" t="s" s="12">
+      <c r="G343" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H343" t="s" s="12">
+      <c r="H343" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I343" t="s" s="12">
+      <c r="I343" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10145,10 +10163,10 @@
       <c r="I345">
         <f>((C345-C344)^2+(D345- D344)^2)^.5</f>
       </c>
-      <c r="J345" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K345" s="12" t="s">
+      <c r="J345" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K345" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L345" t="n">
@@ -10192,28 +10210,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="s" s="12">
+      <c r="A347" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B347" t="s" s="12">
+      <c r="B347" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C347" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D347" t="s" s="12">
+      <c r="C347" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D347" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E347" t="s" s="12">
+      <c r="E347" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F347" t="s" s="12">
+      <c r="F347" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G347" t="s" s="12">
+      <c r="G347" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H347" t="s" s="12">
+      <c r="H347" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10238,28 +10256,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="B349" t="s" s="12">
+      <c r="B349" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C349" t="s" s="12">
+      <c r="C349" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D349" t="s" s="12">
+      <c r="D349" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E349" t="s" s="12">
+      <c r="E349" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F349" t="s" s="12">
+      <c r="F349" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G349" t="s" s="12">
+      <c r="G349" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H349" t="s" s="12">
+      <c r="H349" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I349" t="s" s="12">
+      <c r="I349" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10318,10 +10336,10 @@
       <c r="I351">
         <f>((C351-C350)^2+(D351- D350)^2)^.5</f>
       </c>
-      <c r="J351" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K351" s="12" t="s">
+      <c r="J351" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K351" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L351" t="n">
@@ -10365,28 +10383,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="s" s="12">
+      <c r="A353" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B353" t="s" s="12">
+      <c r="B353" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C353" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D353" t="s" s="12">
+      <c r="C353" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D353" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E353" t="s" s="12">
+      <c r="E353" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F353" t="s" s="12">
+      <c r="F353" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G353" t="s" s="12">
+      <c r="G353" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H353" t="s" s="12">
+      <c r="H353" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10411,28 +10429,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="B355" t="s" s="12">
+      <c r="B355" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C355" t="s" s="12">
+      <c r="C355" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D355" t="s" s="12">
+      <c r="D355" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E355" t="s" s="12">
+      <c r="E355" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F355" t="s" s="12">
+      <c r="F355" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G355" t="s" s="12">
+      <c r="G355" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H355" t="s" s="12">
+      <c r="H355" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I355" t="s" s="12">
+      <c r="I355" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10520,10 +10538,10 @@
       <c r="I358">
         <f>((C358-C357)^2+(D358- D357)^2)^.5</f>
       </c>
-      <c r="J358" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K358" s="12" t="s">
+      <c r="J358" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K358" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L358" t="n">
@@ -10567,28 +10585,28 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="s" s="12">
+      <c r="A360" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B360" t="s" s="12">
+      <c r="B360" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C360" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D360" t="s" s="12">
+      <c r="C360" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D360" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E360" t="s" s="12">
+      <c r="E360" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F360" t="s" s="12">
+      <c r="F360" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G360" t="s" s="12">
+      <c r="G360" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H360" t="s" s="12">
+      <c r="H360" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10613,28 +10631,28 @@
       </c>
     </row>
     <row r="362">
-      <c r="B362" t="s" s="12">
+      <c r="B362" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C362" t="s" s="12">
+      <c r="C362" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D362" t="s" s="12">
+      <c r="D362" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E362" t="s" s="12">
+      <c r="E362" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F362" t="s" s="12">
+      <c r="F362" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G362" t="s" s="12">
+      <c r="G362" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H362" t="s" s="12">
+      <c r="H362" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I362" t="s" s="12">
+      <c r="I362" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10693,10 +10711,10 @@
       <c r="I364">
         <f>((C364-C363)^2+(D364- D363)^2)^.5</f>
       </c>
-      <c r="J364" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K364" s="12" t="s">
+      <c r="J364" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K364" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L364" t="n">
@@ -10740,28 +10758,28 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="s" s="12">
+      <c r="A366" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B366" t="s" s="12">
+      <c r="B366" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C366" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D366" t="s" s="12">
+      <c r="C366" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D366" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E366" t="s" s="12">
+      <c r="E366" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F366" t="s" s="12">
+      <c r="F366" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G366" t="s" s="12">
+      <c r="G366" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H366" t="s" s="12">
+      <c r="H366" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10786,28 +10804,28 @@
       </c>
     </row>
     <row r="368">
-      <c r="B368" t="s" s="12">
+      <c r="B368" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C368" t="s" s="12">
+      <c r="C368" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D368" t="s" s="12">
+      <c r="D368" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E368" t="s" s="12">
+      <c r="E368" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F368" t="s" s="12">
+      <c r="F368" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G368" t="s" s="12">
+      <c r="G368" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H368" t="s" s="12">
+      <c r="H368" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I368" t="s" s="12">
+      <c r="I368" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10866,10 +10884,10 @@
       <c r="I370">
         <f>((C370-C369)^2+(D370- D369)^2)^.5</f>
       </c>
-      <c r="J370" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K370" s="12" t="s">
+      <c r="J370" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K370" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L370" t="n">
@@ -10913,28 +10931,28 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="s" s="12">
+      <c r="A372" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B372" t="s" s="12">
+      <c r="B372" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C372" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D372" t="s" s="12">
+      <c r="C372" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D372" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E372" t="s" s="12">
+      <c r="E372" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F372" t="s" s="12">
+      <c r="F372" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G372" t="s" s="12">
+      <c r="G372" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H372" t="s" s="12">
+      <c r="H372" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10959,28 +10977,28 @@
       </c>
     </row>
     <row r="374">
-      <c r="B374" t="s" s="12">
+      <c r="B374" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C374" t="s" s="12">
+      <c r="C374" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D374" t="s" s="12">
+      <c r="D374" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E374" t="s" s="12">
+      <c r="E374" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F374" t="s" s="12">
+      <c r="F374" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G374" t="s" s="12">
+      <c r="G374" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H374" t="s" s="12">
+      <c r="H374" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I374" t="s" s="12">
+      <c r="I374" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11039,10 +11057,10 @@
       <c r="I376">
         <f>((C376-C375)^2+(D376- D375)^2)^.5</f>
       </c>
-      <c r="J376" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K376" s="12" t="s">
+      <c r="J376" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K376" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L376" t="n">
